--- a/docs/Team01Report-Sprint2.xlsx
+++ b/docs/Team01Report-Sprint2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trevo\AndroidStudioProjects\TrevorCardwellFirstApp\CS_555_GEDCOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Trevor\Documents\GitHub\CS_555_GEDCOM\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0573A4-474F-429F-9946-F4FD1F2F63CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="688" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" tabRatio="688" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -23,11 +22,8 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId8"/>
     <sheet name="Stories" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -42,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="215">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -702,12 +698,27 @@
   </si>
   <si>
     <t>https://github.com/sabk18/CS_555_GEDCOM</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>VK</t>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
+    <t>CODING</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -945,7 +956,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1016,7 +1027,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-01BC-4F72-82C8-DF4DBA538A78}"/>
             </c:ext>
@@ -1032,11 +1043,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-469478512"/>
-        <c:axId val="-469476192"/>
+        <c:axId val="451357464"/>
+        <c:axId val="451351584"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-469478512"/>
+        <c:axId val="451357464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1046,14 +1057,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-469476192"/>
+        <c:crossAx val="451351584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-469476192"/>
+        <c:axId val="451351584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1064,7 +1075,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-469478512"/>
+        <c:crossAx val="451357464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1082,7 +1093,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1135,7 +1146,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1CCF-4C55-AF61-7E17F079723E}"/>
             </c:ext>
@@ -1151,11 +1162,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-467596544"/>
-        <c:axId val="-467594224"/>
+        <c:axId val="451349624"/>
+        <c:axId val="451353152"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-467596544"/>
+        <c:axId val="451349624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1165,14 +1176,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-467594224"/>
+        <c:crossAx val="451353152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-467594224"/>
+        <c:axId val="451353152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1183,7 +1194,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-467596544"/>
+        <c:crossAx val="451349624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1220,7 +1231,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1258,7 +1269,7 @@
         <xdr:cNvPr id="3" name="Rectangular Callout 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1333,7 +1344,7 @@
         <xdr:cNvPr id="4" name="Rectangular Callout 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1398,7 +1409,7 @@
         <xdr:cNvPr id="5" name="Rectangular Callout 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1467,7 +1478,7 @@
         <xdr:cNvPr id="6" name="Rectangular Callout 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1537,7 +1548,7 @@
         <xdr:cNvPr id="7" name="Rectangular Callout 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1606,7 +1617,7 @@
         <xdr:cNvPr id="8" name="Rectangular Callout 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1676,7 +1687,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2016,22 +2027,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.84375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.4609375" customWidth="1"/>
-    <col min="3" max="3" width="8.4609375" customWidth="1"/>
-    <col min="4" max="5" width="20.4609375" customWidth="1"/>
+    <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -2048,7 +2059,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>174</v>
       </c>
@@ -2063,7 +2074,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>188</v>
       </c>
@@ -2074,7 +2085,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>189</v>
       </c>
@@ -2088,7 +2099,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>190</v>
       </c>
@@ -2102,7 +2113,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D9" s="4" t="s">
         <v>31</v>
       </c>
@@ -2116,7 +2127,7 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E9" r:id="rId1" xr:uid="{5EEF1BC0-5123-437F-9657-32EDD3D4E297}"/>
+    <hyperlink ref="E9" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2124,23 +2135,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E13"/>
+      <selection activeCell="E8" sqref="E8:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.15234375" customWidth="1"/>
-    <col min="2" max="2" width="7.61328125" customWidth="1"/>
-    <col min="3" max="3" width="19.4609375" customWidth="1"/>
-    <col min="4" max="4" width="6.61328125" customWidth="1"/>
-    <col min="5" max="5" width="7.61328125" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="7.625" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="6.625" customWidth="1"/>
+    <col min="5" max="5" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -2157,7 +2168,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2174,7 +2185,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2191,7 +2202,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2205,10 +2216,10 @@
         <v>188</v>
       </c>
       <c r="E4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2225,7 +2236,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -2239,10 +2250,10 @@
         <v>193</v>
       </c>
       <c r="E6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
@@ -2256,10 +2267,10 @@
         <v>193</v>
       </c>
       <c r="E7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -2273,10 +2284,10 @@
         <v>190</v>
       </c>
       <c r="E8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -2290,10 +2301,10 @@
         <v>190</v>
       </c>
       <c r="E9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2307,10 +2318,10 @@
         <v>204</v>
       </c>
       <c r="E10" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2324,10 +2335,10 @@
         <v>204</v>
       </c>
       <c r="E11" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2344,7 +2355,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2369,54 +2380,54 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView topLeftCell="A9" zoomScale="150" workbookViewId="0">
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.84375" style="7"/>
-    <col min="2" max="2" width="9.4609375" customWidth="1"/>
-    <col min="3" max="3" width="15.84375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.3828125" customWidth="1"/>
-    <col min="5" max="5" width="6.84375" customWidth="1"/>
-    <col min="6" max="6" width="12.4609375" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="7"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>159</v>
       </c>
@@ -2439,7 +2450,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>160</v>
       </c>
@@ -2455,7 +2466,7 @@
       <c r="F15" s="14"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>161</v>
       </c>
@@ -2480,7 +2491,7 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>162</v>
       </c>
@@ -2505,7 +2516,7 @@
         <v>102.22222222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>163</v>
       </c>
@@ -2530,7 +2541,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>164</v>
       </c>
@@ -2563,24 +2574,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.84375" style="2"/>
-    <col min="2" max="2" width="16.61328125" customWidth="1"/>
-    <col min="3" max="3" width="12.4609375" customWidth="1"/>
-    <col min="4" max="4" width="7.15234375" customWidth="1"/>
-    <col min="5" max="5" width="6.84375" customWidth="1"/>
-    <col min="6" max="6" width="12.4609375" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="2"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="7.125" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2600,7 +2611,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>42412</v>
       </c>
@@ -2617,7 +2628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>42427</v>
       </c>
@@ -2643,26 +2654,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.61328125" customWidth="1"/>
-    <col min="2" max="2" width="24.4609375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.61328125" customWidth="1"/>
-    <col min="5" max="5" width="11.23046875" customWidth="1"/>
-    <col min="6" max="6" width="8.61328125" customWidth="1"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.625" customWidth="1"/>
+    <col min="5" max="5" width="11.25" customWidth="1"/>
+    <col min="6" max="6" width="8.625" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="7.61328125" customWidth="1"/>
-    <col min="9" max="9" width="10.84375" style="6"/>
+    <col min="8" max="8" width="7.625" customWidth="1"/>
+    <col min="9" max="9" width="10.875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2691,7 +2702,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>114</v>
       </c>
@@ -2720,7 +2731,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>175</v>
       </c>
@@ -2734,7 +2745,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>175</v>
       </c>
@@ -2748,7 +2759,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>120</v>
       </c>
@@ -2777,7 +2788,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>197</v>
       </c>
@@ -2792,7 +2803,7 @@
       </c>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>197</v>
       </c>
@@ -2807,10 +2818,10 @@
       </c>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>132</v>
       </c>
@@ -2827,7 +2838,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>198</v>
       </c>
@@ -2842,7 +2853,7 @@
       </c>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>198</v>
       </c>
@@ -2857,10 +2868,10 @@
       </c>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>113</v>
       </c>
@@ -2889,7 +2900,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>200</v>
       </c>
@@ -2904,7 +2915,7 @@
       </c>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>200</v>
       </c>
@@ -2919,17 +2930,17 @@
       </c>
       <c r="I16" s="7"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="5"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="5"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="5"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="5"/>
     </row>
   </sheetData>
@@ -2940,19 +2951,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C9"/>
+    <sheetView topLeftCell="A2" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="27.61328125" customWidth="1"/>
+    <col min="2" max="2" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2981,7 +2992,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>206</v>
       </c>
@@ -3001,7 +3012,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>205</v>
       </c>
@@ -3021,7 +3032,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>135</v>
       </c>
@@ -3041,7 +3052,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>137</v>
       </c>
@@ -3061,7 +3072,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>117</v>
       </c>
@@ -3081,7 +3092,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>118</v>
       </c>
@@ -3101,7 +3112,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>119</v>
       </c>
@@ -3121,7 +3132,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>121</v>
       </c>
@@ -3149,16 +3160,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="23.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3185,6 +3199,118 @@
       </c>
       <c r="I1" s="10" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" t="s">
+        <v>213</v>
+      </c>
+      <c r="D8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D9" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -3194,16 +3320,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3239,20 +3365,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B6" activeCellId="1" sqref="B3 B6"/>
+    <sheetView topLeftCell="A34" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.15234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.4609375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>110</v>
       </c>
@@ -3263,7 +3389,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>111</v>
       </c>
@@ -3274,7 +3400,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>112</v>
       </c>
@@ -3285,7 +3411,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>113</v>
       </c>
@@ -3296,7 +3422,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>114</v>
       </c>
@@ -3307,7 +3433,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>115</v>
       </c>
@@ -3318,7 +3444,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>116</v>
       </c>
@@ -3329,7 +3455,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>117</v>
       </c>
@@ -3340,7 +3466,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>118</v>
       </c>
@@ -3351,7 +3477,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>119</v>
       </c>
@@ -3362,7 +3488,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>120</v>
       </c>
@@ -3373,7 +3499,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>121</v>
       </c>
@@ -3384,7 +3510,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>122</v>
       </c>
@@ -3395,7 +3521,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="63" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>123</v>
       </c>
@@ -3406,7 +3532,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>124</v>
       </c>
@@ -3417,7 +3543,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>125</v>
       </c>
@@ -3428,7 +3554,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>126</v>
       </c>
@@ -3439,7 +3565,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>127</v>
       </c>
@@ -3450,7 +3576,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>128</v>
       </c>
@@ -3461,7 +3587,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>129</v>
       </c>
@@ -3472,7 +3598,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>130</v>
       </c>
@@ -3483,7 +3609,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>131</v>
       </c>
@@ -3494,7 +3620,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>132</v>
       </c>
@@ -3505,7 +3631,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>133</v>
       </c>
@@ -3516,7 +3642,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>134</v>
       </c>
@@ -3527,7 +3653,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>135</v>
       </c>
@@ -3538,7 +3664,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="126" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>136</v>
       </c>
@@ -3549,7 +3675,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>137</v>
       </c>
@@ -3560,7 +3686,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>138</v>
       </c>
@@ -3571,7 +3697,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>139</v>
       </c>
@@ -3582,7 +3708,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>140</v>
       </c>
@@ -3593,7 +3719,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>141</v>
       </c>
@@ -3604,7 +3730,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>142</v>
       </c>
@@ -3615,7 +3741,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>143</v>
       </c>
@@ -3626,7 +3752,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>144</v>
       </c>
@@ -3637,7 +3763,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>145</v>
       </c>
@@ -3648,7 +3774,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>146</v>
       </c>
@@ -3659,7 +3785,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>147</v>
       </c>
@@ -3670,7 +3796,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>148</v>
       </c>
@@ -3681,7 +3807,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>149</v>
       </c>
@@ -3692,7 +3818,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>150</v>
       </c>
@@ -3703,7 +3829,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>151</v>
       </c>
@@ -3714,7 +3840,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>152</v>
       </c>

--- a/docs/Team01Report-Sprint2.xlsx
+++ b/docs/Team01Report-Sprint2.xlsx
@@ -333,213 +333,219 @@
     <t>Birth before death of parents</t>
   </si>
   <si>
+    <t>US21</t>
+  </si>
+  <si>
+    <t>Correct gender for role</t>
+  </si>
+  <si>
+    <t>The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
+  </si>
+  <si>
+    <t>to deliver the product.  Burndown charts can be done daily, weekly, at the end of a sprint, or at whatever time interval makes sense.</t>
+  </si>
+  <si>
+    <t>We'll update our burndown chart for the GEDCOM project at the end of each sprint.</t>
+  </si>
+  <si>
+    <t>At the end of each sprint, you should update the number of remaining stories, the LOC written to implement the user stories</t>
+  </si>
+  <si>
+    <t>implemented in this sprint, and the minutes needed to write those lines of code.</t>
+  </si>
+  <si>
+    <t>Here's a sample burndown chart for a team of three:</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Remaining Stories</t>
+  </si>
+  <si>
+    <t>Story Velocity</t>
+  </si>
+  <si>
+    <t>LOC</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Code Velocity</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>Est Size</t>
+  </si>
+  <si>
+    <t>Est Time</t>
+  </si>
+  <si>
+    <t>Act Size</t>
+  </si>
+  <si>
+    <t>Act Time</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>T04.01</t>
+  </si>
+  <si>
+    <t>Store Marriage Date</t>
+  </si>
+  <si>
+    <t>Store Divorce date</t>
+  </si>
+  <si>
+    <t>T10.01</t>
+  </si>
+  <si>
+    <t>Store age</t>
+  </si>
+  <si>
+    <t>T22.01</t>
+  </si>
+  <si>
+    <t>Store IDs</t>
+  </si>
+  <si>
+    <t>Compare</t>
+  </si>
+  <si>
+    <t>T03.01</t>
+  </si>
+  <si>
+    <t>Store dates</t>
+  </si>
+  <si>
+    <t>Validate</t>
+  </si>
+  <si>
+    <t>coding</t>
+  </si>
+  <si>
+    <t>US28</t>
+  </si>
+  <si>
+    <t>Order siblings by age</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>CODING</t>
+  </si>
+  <si>
+    <t>US35</t>
+  </si>
+  <si>
+    <t>List recent births</t>
+  </si>
+  <si>
+    <t>US30</t>
+  </si>
+  <si>
+    <t>List living married</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>US31</t>
+  </si>
+  <si>
+    <t>List living single</t>
+  </si>
+  <si>
+    <t>US32</t>
+  </si>
+  <si>
+    <t>List multiple births</t>
+  </si>
+  <si>
+    <t>VK</t>
+  </si>
+  <si>
+    <t>US37</t>
+  </si>
+  <si>
+    <t>List recent survivors</t>
+  </si>
+  <si>
+    <t>US41</t>
+  </si>
+  <si>
+    <t>Include partial dates</t>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
+    <t>US42</t>
+  </si>
+  <si>
+    <t>Reject illegitimate dates</t>
+  </si>
+  <si>
+    <t>Story Description</t>
+  </si>
+  <si>
+    <t>US01</t>
+  </si>
+  <si>
+    <t>Dates before current date</t>
+  </si>
+  <si>
+    <t>Dates (birth, marriage, divorce, death) should not be after the current date</t>
+  </si>
+  <si>
+    <t>US02</t>
+  </si>
+  <si>
+    <t>Birth should occur before marriage of an individual</t>
+  </si>
+  <si>
+    <t>Birth before death</t>
+  </si>
+  <si>
+    <t>Birth should occur before death of an individual</t>
+  </si>
+  <si>
+    <t>Marriage should occur before divorce of spouses, and divorce can only occur after marriage</t>
+  </si>
+  <si>
+    <t>US05</t>
+  </si>
+  <si>
+    <t>Marriage should occur before death of either spouse</t>
+  </si>
+  <si>
     <t>US06</t>
   </si>
   <si>
     <t>Divorce before death</t>
   </si>
   <si>
-    <t>The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
-  </si>
-  <si>
-    <t>to deliver the product.  Burndown charts can be done daily, weekly, at the end of a sprint, or at whatever time interval makes sense.</t>
-  </si>
-  <si>
-    <t>We'll update our burndown chart for the GEDCOM project at the end of each sprint.</t>
-  </si>
-  <si>
-    <t>At the end of each sprint, you should update the number of remaining stories, the LOC written to implement the user stories</t>
-  </si>
-  <si>
-    <t>implemented in this sprint, and the minutes needed to write those lines of code.</t>
-  </si>
-  <si>
-    <t>Here's a sample burndown chart for a team of three:</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Remaining Stories</t>
-  </si>
-  <si>
-    <t>Story Velocity</t>
-  </si>
-  <si>
-    <t>LOC</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Code Velocity</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>Sprint 1</t>
-  </si>
-  <si>
-    <t>Sprint 2</t>
-  </si>
-  <si>
-    <t>Sprint 3</t>
-  </si>
-  <si>
-    <t>Sprint 4</t>
-  </si>
-  <si>
-    <t>Est Size</t>
-  </si>
-  <si>
-    <t>Est Time</t>
-  </si>
-  <si>
-    <t>Act Size</t>
-  </si>
-  <si>
-    <t>Act Time</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>T04.01</t>
-  </si>
-  <si>
-    <t>Store Marriage Date</t>
-  </si>
-  <si>
-    <t>Store Divorce date</t>
-  </si>
-  <si>
-    <t>T10.01</t>
-  </si>
-  <si>
-    <t>Store age</t>
-  </si>
-  <si>
-    <t>T22.01</t>
-  </si>
-  <si>
-    <t>Store IDs</t>
-  </si>
-  <si>
-    <t>Compare</t>
-  </si>
-  <si>
-    <t>T03.01</t>
-  </si>
-  <si>
-    <t>Store dates</t>
-  </si>
-  <si>
-    <t>Validate</t>
-  </si>
-  <si>
-    <t>coding</t>
-  </si>
-  <si>
-    <t>US28</t>
-  </si>
-  <si>
-    <t>Order siblings by age</t>
-  </si>
-  <si>
-    <t>TC</t>
-  </si>
-  <si>
-    <t>CODING</t>
-  </si>
-  <si>
-    <t>US35</t>
-  </si>
-  <si>
-    <t>List recent births</t>
-  </si>
-  <si>
-    <t>US30</t>
-  </si>
-  <si>
-    <t>List living married</t>
-  </si>
-  <si>
-    <t>ST</t>
-  </si>
-  <si>
-    <t>US31</t>
-  </si>
-  <si>
-    <t>List living single</t>
-  </si>
-  <si>
-    <t>US32</t>
-  </si>
-  <si>
-    <t>List multiple births</t>
-  </si>
-  <si>
-    <t>VK</t>
-  </si>
-  <si>
-    <t>US37</t>
-  </si>
-  <si>
-    <t>List recent survivors</t>
-  </si>
-  <si>
-    <t>US41</t>
-  </si>
-  <si>
-    <t>Include partial dates</t>
-  </si>
-  <si>
-    <t>SK</t>
-  </si>
-  <si>
-    <t>US42</t>
-  </si>
-  <si>
-    <t>Reject illegitimate dates</t>
-  </si>
-  <si>
-    <t>Story Description</t>
-  </si>
-  <si>
-    <t>US01</t>
-  </si>
-  <si>
-    <t>Dates before current date</t>
-  </si>
-  <si>
-    <t>Dates (birth, marriage, divorce, death) should not be after the current date</t>
-  </si>
-  <si>
-    <t>US02</t>
-  </si>
-  <si>
-    <t>Birth should occur before marriage of an individual</t>
-  </si>
-  <si>
-    <t>Birth before death</t>
-  </si>
-  <si>
-    <t>Birth should occur before death of an individual</t>
-  </si>
-  <si>
-    <t>Marriage should occur before divorce of spouses, and divorce can only occur after marriage</t>
-  </si>
-  <si>
-    <t>US05</t>
-  </si>
-  <si>
-    <t>Marriage should occur before death of either spouse</t>
-  </si>
-  <si>
     <t>Divorce can only occur before death of both spouses</t>
   </si>
   <si>
@@ -643,12 +649,6 @@
   </si>
   <si>
     <t>Aunts and uncles should not marry their nieces or nephews</t>
-  </si>
-  <si>
-    <t>US21</t>
-  </si>
-  <si>
-    <t>Correct gender for role</t>
   </si>
   <si>
     <t>Husband in family should be male and wife in family should be female</t>
@@ -842,7 +842,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="13"/>
+      <color indexed="12"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -872,7 +872,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
+        <fgColor indexed="12"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -905,11 +905,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -918,7 +918,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -926,17 +926,17 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right/>
       <top/>
@@ -953,7 +953,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top/>
       <bottom/>
@@ -961,12 +961,23 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -975,59 +986,48 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1035,36 +1035,36 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1096,28 +1096,28 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1135,20 +1135,20 @@
     <xf numFmtId="49" fontId="4" fillId="6" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
@@ -1254,8 +1254,8 @@
       <rgbColor rgb="015e88b1"/>
       <rgbColor rgb="01eef3f4"/>
       <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ff5e88b1"/>
       <rgbColor rgb="ffeef3f4"/>
       <rgbColor rgb="ffd6e3bc"/>
@@ -1278,10 +1278,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0833081"/>
-          <c:y val="0.0581198"/>
-          <c:w val="0.911692"/>
-          <c:h val="0.85673"/>
+          <c:x val="0.0473273"/>
+          <c:y val="0.0588556"/>
+          <c:w val="0.947673"/>
+          <c:h val="0.855075"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1308,7 +1308,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="diamond"/>
-            <c:size val="5"/>
+            <c:size val="4"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -1350,23 +1350,23 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Burndown'!$B$15:$B$20</c:f>
+              <c:f>'Sprint1'!$B$15:$B$20</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6/6/16</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6/19/16</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7/3/16</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7/17/16</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7/31/16</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v/>
@@ -1376,24 +1376,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown'!$C$15:$C$20</c:f>
+              <c:f>'Sprint1'!$C$15:$C$20</c:f>
               <c:numCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>24.000000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18.000000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.000000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.000000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.000000</c:v>
-                </c:pt>
+                <c:ptCount val="0"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1487,8 +1472,8 @@
         <c:crossAx val="2094734552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="7.5"/>
-        <c:minorUnit val="3.75"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="0.5"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -1532,10 +1517,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0851619"/>
-          <c:y val="0.0581199"/>
-          <c:w val="0.909838"/>
-          <c:h val="0.85673"/>
+          <c:x val="0.0484233"/>
+          <c:y val="0.0588556"/>
+          <c:w val="0.946577"/>
+          <c:h val="0.855075"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1562,7 +1547,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="diamond"/>
-            <c:size val="5"/>
+            <c:size val="4"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -1604,41 +1589,35 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Sprint1'!$A$2:$A$7</c:f>
+              <c:f>'Sprint2'!$A$2:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2/13</c:v>
+                  <c:v>US04</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2/28</c:v>
+                  <c:v>T04.01</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>T04.01</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v/>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v/>
+                  <c:v>US10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v/>
+                  <c:v>T10.01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint1'!$B$2:$B$7</c:f>
+              <c:f>'Sprint2'!$B$2:$B$7</c:f>
               <c:numCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>36.000000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>31.000000</c:v>
-                </c:pt>
+                <c:ptCount val="0"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1732,8 +1711,8 @@
         <c:crossAx val="2094734552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="1.5"/>
-        <c:minorUnit val="0.75"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="0.5"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -1769,16 +1748,16 @@
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>768821</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>119868</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>11641</xdr:rowOff>
+      <xdr:rowOff>11640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>243872</xdr:colOff>
+      <xdr:colOff>220652</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>43009</xdr:rowOff>
+      <xdr:rowOff>10230</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1786,8 +1765,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="768821" y="3573991"/>
-        <a:ext cx="4643952" cy="2622169"/>
+        <a:off x="945368" y="3573990"/>
+        <a:ext cx="4444185" cy="2589391"/>
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1800,15 +1779,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>430952</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>43641</xdr:rowOff>
+      <xdr:colOff>401163</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>44321</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1154044</xdr:colOff>
+      <xdr:colOff>1173094</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>33537</xdr:rowOff>
+      <xdr:rowOff>129935</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1817,10 +1796,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1256452" y="1177116"/>
-          <a:ext cx="1446993" cy="1285297"/>
-          <a:chOff x="0" y="-68770"/>
-          <a:chExt cx="1408892" cy="1117649"/>
+          <a:off x="1226663" y="1015871"/>
+          <a:ext cx="1495832" cy="1542940"/>
+          <a:chOff x="-10462" y="-56388"/>
+          <a:chExt cx="1457455" cy="1341685"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp>
@@ -1830,8 +1809,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="0" y="79086"/>
-            <a:ext cx="1408893" cy="969794"/>
+            <a:off x="0" y="170034"/>
+            <a:ext cx="1446993" cy="1115264"/>
           </a:xfrm>
           <a:custGeom>
             <a:avLst/>
@@ -1927,8 +1906,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="8361" y="-68771"/>
-            <a:ext cx="1219832" cy="1054480"/>
+            <a:off x="-10463" y="-56389"/>
+            <a:ext cx="1290920" cy="864612"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2050,15 +2029,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>75349</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>93972</xdr:rowOff>
+      <xdr:colOff>45648</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>134752</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>537633</xdr:colOff>
+      <xdr:colOff>567331</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>62914</xdr:rowOff>
+      <xdr:rowOff>133450</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2067,10 +2046,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5244249" y="1227447"/>
-          <a:ext cx="1300485" cy="940493"/>
-          <a:chOff x="0" y="-44005"/>
-          <a:chExt cx="1262383" cy="817819"/>
+          <a:off x="5214548" y="1106302"/>
+          <a:ext cx="1359883" cy="1132174"/>
+          <a:chOff x="-10347" y="-44006"/>
+          <a:chExt cx="1321176" cy="984498"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp>
@@ -2080,8 +2059,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="0" y="64846"/>
-            <a:ext cx="1262384" cy="708968"/>
+            <a:off x="-1" y="125178"/>
+            <a:ext cx="1300487" cy="815315"/>
           </a:xfrm>
           <a:custGeom>
             <a:avLst/>
@@ -2177,8 +2156,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="8448" y="-44006"/>
-            <a:ext cx="1245485" cy="674750"/>
+            <a:off x="-10348" y="-44007"/>
+            <a:ext cx="1321178" cy="674748"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2249,15 +2228,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1201420</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>51109</xdr:rowOff>
+      <xdr:colOff>1171888</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>53381</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>156635</xdr:colOff>
+      <xdr:colOff>186163</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>19778</xdr:rowOff>
+      <xdr:rowOff>114584</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2266,10 +2245,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2750820" y="1022659"/>
-          <a:ext cx="1101516" cy="1264070"/>
-          <a:chOff x="0" y="-56389"/>
-          <a:chExt cx="1063415" cy="1099189"/>
+          <a:off x="2721288" y="863006"/>
+          <a:ext cx="1160576" cy="1518529"/>
+          <a:chOff x="-10131" y="-56388"/>
+          <a:chExt cx="1121775" cy="1320459"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp>
@@ -2279,8 +2258,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="0" y="64845"/>
-            <a:ext cx="1063416" cy="977956"/>
+            <a:off x="0" y="139419"/>
+            <a:ext cx="1101516" cy="1124652"/>
           </a:xfrm>
           <a:custGeom>
             <a:avLst/>
@@ -2376,8 +2355,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="8610" y="-56390"/>
-            <a:ext cx="1046193" cy="864615"/>
+            <a:off x="-10132" y="-56389"/>
+            <a:ext cx="1121776" cy="864612"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2448,15 +2427,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>115568</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>45231</xdr:rowOff>
+      <xdr:colOff>96518</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>97853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>24130</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>67987</xdr:rowOff>
+      <xdr:colOff>43180</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76909</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2465,10 +2444,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3811268" y="1340631"/>
-          <a:ext cx="429263" cy="994307"/>
-          <a:chOff x="0" y="-56387"/>
-          <a:chExt cx="391161" cy="864613"/>
+          <a:off x="3792218" y="1231328"/>
+          <a:ext cx="467363" cy="950607"/>
+          <a:chOff x="0" y="-44005"/>
+          <a:chExt cx="429262" cy="826614"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp>
@@ -2478,8 +2457,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="0" y="79086"/>
-            <a:ext cx="391162" cy="545055"/>
+            <a:off x="0" y="155795"/>
+            <a:ext cx="429263" cy="626815"/>
           </a:xfrm>
           <a:custGeom>
             <a:avLst/>
@@ -2575,8 +2554,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="19780" y="-56388"/>
-            <a:ext cx="351600" cy="864614"/>
+            <a:off x="2656" y="-44006"/>
+            <a:ext cx="423948" cy="674748"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2698,15 +2677,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>59905</xdr:rowOff>
+      <xdr:colOff>473334</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>56521</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>186267</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>103984</xdr:rowOff>
+      <xdr:colOff>215850</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>42521</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2715,10 +2694,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4198620" y="1031455"/>
-          <a:ext cx="1156548" cy="1339480"/>
-          <a:chOff x="0" y="-56387"/>
-          <a:chExt cx="1118447" cy="1164763"/>
+          <a:off x="4169034" y="866146"/>
+          <a:ext cx="1215717" cy="1605251"/>
+          <a:chOff x="-10199" y="-56388"/>
+          <a:chExt cx="1176944" cy="1395868"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp>
@@ -2728,8 +2707,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="-1" y="64846"/>
-            <a:ext cx="1118449" cy="1043531"/>
+            <a:off x="-2" y="139418"/>
+            <a:ext cx="1156550" cy="1200063"/>
           </a:xfrm>
           <a:custGeom>
             <a:avLst/>
@@ -2825,8 +2804,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="8559" y="-56388"/>
-            <a:ext cx="1101328" cy="864614"/>
+            <a:off x="-10200" y="-56389"/>
+            <a:ext cx="1176945" cy="864612"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2897,15 +2876,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>206842</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>79971</xdr:rowOff>
+      <xdr:colOff>187792</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>100687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>664631</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>154509</xdr:rowOff>
+      <xdr:colOff>694326</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>83186</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2914,10 +2893,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5375742" y="4775796"/>
-          <a:ext cx="1295990" cy="1208014"/>
-          <a:chOff x="0" y="-44005"/>
-          <a:chExt cx="1257889" cy="1050445"/>
+          <a:off x="5356692" y="4634587"/>
+          <a:ext cx="1344735" cy="1439825"/>
+          <a:chOff x="0" y="-44006"/>
+          <a:chExt cx="1306330" cy="1252020"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp>
@@ -2927,8 +2906,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="0" y="64846"/>
-            <a:ext cx="1257890" cy="941595"/>
+            <a:off x="0" y="125178"/>
+            <a:ext cx="1295990" cy="1082837"/>
           </a:xfrm>
           <a:custGeom>
             <a:avLst/>
@@ -3024,8 +3003,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="30013" y="-44006"/>
-            <a:ext cx="1219424" cy="674750"/>
+            <a:off x="11872" y="-44007"/>
+            <a:ext cx="1294459" cy="674748"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3100,16 +3079,16 @@
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>768820</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>119867</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>11642</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>244382</xdr:colOff>
+      <xdr:colOff>221667</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>43009</xdr:rowOff>
+      <xdr:rowOff>10231</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3117,8 +3096,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="768820" y="1468967"/>
-        <a:ext cx="4542863" cy="2622168"/>
+        <a:off x="945367" y="1468967"/>
+        <a:ext cx="4343601" cy="2589390"/>
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4220,7 +4199,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -4478,16 +4457,19 @@
       <c r="D26" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="E26" s="24"/>
-    </row>
-    <row r="27">
+      <c r="E26" s="21"/>
+    </row>
+    <row r="27" ht="13" customHeight="1">
+      <c r="A27" s="7"/>
       <c r="B27" t="s" s="3">
         <v>22</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-    </row>
-    <row r="28">
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" ht="13" customHeight="1">
+      <c r="A28" s="20"/>
       <c r="B28" s="4"/>
       <c r="C28" t="s" s="4">
         <v>5</v>
@@ -4495,6 +4477,7 @@
       <c r="D28" t="s" s="5">
         <v>22</v>
       </c>
+      <c r="E28" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4504,14 +4487,15 @@
   <hyperlinks>
     <hyperlink ref="D10" location="'Export Summary'!R1C1" tooltip="" display="Export Summary"/>
     <hyperlink ref="D10" location="'Team'!R1C1" tooltip="" display="Team"/>
-    <hyperlink ref="D12" location="'Backlog'!R1C1" tooltip="" display="Backlog"/>
-    <hyperlink ref="D14" location="'Burndown README'!R1C1" tooltip="" display="Burndown README"/>
-    <hyperlink ref="D16" location="'Burndown'!R1C1" tooltip="" display="Burndown"/>
-    <hyperlink ref="D18" location="'Sprint1'!R1C1" tooltip="" display="Sprint1"/>
-    <hyperlink ref="D20" location="'Sprint2'!R1C1" tooltip="" display="Sprint2"/>
-    <hyperlink ref="D22" location="'Sprint3'!R1C1" tooltip="" display="Sprint3"/>
-    <hyperlink ref="D24" location="'Sprint4'!R1C1" tooltip="" display="Sprint4"/>
-    <hyperlink ref="D26" location="'Stories'!R1C1" tooltip="" display="Stories"/>
+    <hyperlink ref="D12" location="'Team'!R1C1" tooltip="" display="Team"/>
+    <hyperlink ref="D14" location="'Backlog'!R1C1" tooltip="" display="Backlog"/>
+    <hyperlink ref="D16" location="'Burndown README'!R1C1" tooltip="" display="Burndown README"/>
+    <hyperlink ref="D18" location="'Burndown'!R1C1" tooltip="" display="Burndown"/>
+    <hyperlink ref="D20" location="'Sprint1'!R1C1" tooltip="" display="Sprint1"/>
+    <hyperlink ref="D22" location="'Sprint2'!R1C1" tooltip="" display="Sprint2"/>
+    <hyperlink ref="D24" location="'Sprint3'!R1C1" tooltip="" display="Sprint3"/>
+    <hyperlink ref="D26" location="'Sprint4'!R1C1" tooltip="" display="Sprint4"/>
+    <hyperlink ref="D28" location="'Stories'!R1C1" tooltip="" display="Stories"/>
     <hyperlink ref="D12" location="'Team'!R1C1" tooltip="" display="Team"/>
     <hyperlink ref="D14" location="'Backlog'!R1C1" tooltip="" display="Backlog"/>
     <hyperlink ref="D16" location="'Burndown README'!R1C1" tooltip="" display="Burndown README"/>
@@ -4625,13 +4609,13 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" t="s" s="26">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="B7" t="s" s="26">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="C7" t="s" s="52">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
@@ -4644,7 +4628,7 @@
         <v>71</v>
       </c>
       <c r="C8" t="s" s="52">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D8" s="27"/>
       <c r="E8" s="27"/>
@@ -4657,7 +4641,7 @@
         <v>74</v>
       </c>
       <c r="C9" t="s" s="52">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
@@ -4670,7 +4654,7 @@
         <v>76</v>
       </c>
       <c r="C10" t="s" s="52">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
@@ -4683,147 +4667,147 @@
         <v>56</v>
       </c>
       <c r="C11" t="s" s="52">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="27"/>
     </row>
     <row r="12" ht="31.5" customHeight="1">
       <c r="A12" t="s" s="26">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="26">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C12" t="s" s="52">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
     </row>
     <row r="13" ht="47.25" customHeight="1">
       <c r="A13" t="s" s="26">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s" s="26">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C13" t="s" s="52">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
     </row>
     <row r="14" ht="63" customHeight="1">
       <c r="A14" t="s" s="26">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B14" t="s" s="26">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C14" t="s" s="52">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
     </row>
     <row r="15" ht="31.5" customHeight="1">
       <c r="A15" t="s" s="26">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B15" t="s" s="26">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C15" t="s" s="52">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" t="s" s="26">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B16" t="s" s="26">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C16" t="s" s="52">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
     </row>
     <row r="17" ht="31.5" customHeight="1">
       <c r="A17" t="s" s="26">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B17" t="s" s="26">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C17" t="s" s="52">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" t="s" s="26">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B18" t="s" s="26">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C18" t="s" s="52">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" t="s" s="26">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B19" t="s" s="26">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C19" t="s" s="52">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" t="s" s="26">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B20" t="s" s="26">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C20" t="s" s="52">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
     </row>
     <row r="21" ht="31.5" customHeight="1">
       <c r="A21" t="s" s="26">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B21" t="s" s="26">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C21" t="s" s="52">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
     </row>
     <row r="22" ht="31.5" customHeight="1">
       <c r="A22" t="s" s="26">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="B22" t="s" s="26">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s" s="52">
         <v>183</v>

--- a/docs/Team01Report-Sprint2.xlsx
+++ b/docs/Team01Report-Sprint2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="217">
   <si>
     <t>This document was exported from Numbers. Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -34,136 +34,10 @@
     <t>Excel Worksheet Name</t>
   </si>
   <si>
-    <t>Export Summary</t>
+    <t>Team</t>
   </si>
   <si>
     <t>Table 1</t>
-  </si>
-  <si>
-    <t>Team</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color indexed="11"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>Team</t>
-    </r>
-  </si>
-  <si>
-    <t>Backlog</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color indexed="11"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>Backlog</t>
-    </r>
-  </si>
-  <si>
-    <t>Burndown README</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color indexed="11"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>Burndown README</t>
-    </r>
-  </si>
-  <si>
-    <t>Burndown</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color indexed="11"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>Burndown</t>
-    </r>
-  </si>
-  <si>
-    <t>Sprint1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color indexed="11"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>Sprint1</t>
-    </r>
-  </si>
-  <si>
-    <t>Sprint2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color indexed="11"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>Sprint2</t>
-    </r>
-  </si>
-  <si>
-    <t>Sprint3</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color indexed="11"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>Sprint3</t>
-    </r>
-  </si>
-  <si>
-    <t>Sprint4</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color indexed="11"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>Sprint4</t>
-    </r>
-  </si>
-  <si>
-    <t>Stories</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color indexed="11"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>Stories</t>
-    </r>
   </si>
   <si>
     <t>Initials</t>
@@ -243,6 +117,9 @@
     </r>
   </si>
   <si>
+    <t>Backlog</t>
+  </si>
+  <si>
     <t>Sprint</t>
   </si>
   <si>
@@ -333,12 +210,18 @@
     <t>Birth before death of parents</t>
   </si>
   <si>
+    <t>Coding</t>
+  </si>
+  <si>
     <t>US21</t>
   </si>
   <si>
     <t>Correct gender for role</t>
   </si>
   <si>
+    <t>Burndown README</t>
+  </si>
+  <si>
     <t>The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
   </si>
   <si>
@@ -390,6 +273,12 @@
     <t>Sprint 4</t>
   </si>
   <si>
+    <t>Burndown</t>
+  </si>
+  <si>
+    <t>Sprint1</t>
+  </si>
+  <si>
     <t>Est Size</t>
   </si>
   <si>
@@ -429,9 +318,15 @@
     <t>Store IDs</t>
   </si>
   <si>
+    <t>coding</t>
+  </si>
+  <si>
     <t>Compare</t>
   </si>
   <si>
+    <t>backlog</t>
+  </si>
+  <si>
     <t>T03.01</t>
   </si>
   <si>
@@ -441,7 +336,10 @@
     <t>Validate</t>
   </si>
   <si>
-    <t>coding</t>
+    <t>Sprint2</t>
+  </si>
+  <si>
+    <t>Sprint3</t>
   </si>
   <si>
     <t>US28</t>
@@ -505,6 +403,12 @@
   </si>
   <si>
     <t>Reject illegitimate dates</t>
+  </si>
+  <si>
+    <t>Sprint4</t>
+  </si>
+  <si>
+    <t>Stories</t>
   </si>
   <si>
     <t>Story Description</t>
@@ -838,11 +742,11 @@
     <font>
       <sz val="18"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="12"/>
+      <color indexed="13"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -851,7 +755,7 @@
       <name val="Cambria"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -872,7 +776,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="12"/>
+        <fgColor indexed="13"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -882,20 +786,8 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="15"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="16"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -905,42 +797,43 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -952,119 +845,38 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
       <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1074,7 +886,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1096,127 +908,85 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="14" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="7" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="60" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="60" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -1231,7 +1001,7 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1254,10 +1024,8 @@
       <rgbColor rgb="015e88b1"/>
       <rgbColor rgb="01eef3f4"/>
       <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff5e88b1"/>
-      <rgbColor rgb="ffeef3f4"/>
       <rgbColor rgb="ffd6e3bc"/>
       <rgbColor rgb="ff878787"/>
       <rgbColor rgb="ff4a7dbb"/>
@@ -1278,10 +1046,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0473273"/>
-          <c:y val="0.0588556"/>
-          <c:w val="0.947673"/>
-          <c:h val="0.855075"/>
+          <c:x val="0.0831987"/>
+          <c:y val="0.0573934"/>
+          <c:w val="0.911801"/>
+          <c:h val="0.858365"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1308,7 +1076,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="diamond"/>
-            <c:size val="4"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -1324,7 +1092,7 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -1350,23 +1118,23 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Sprint1'!$B$15:$B$20</c:f>
+              <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>6/6/16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>6/19/16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>7/3/16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>7/17/16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v/>
+                  <c:v>7/31/16</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v/>
@@ -1376,9 +1144,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint1'!$C$15:$C$20</c:f>
+              <c:f>'Burndown README'!$C$15:$C$20</c:f>
               <c:numCache>
-                <c:ptCount val="0"/>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>24.000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.000000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1395,7 +1178,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -1472,8 +1255,8 @@
         <c:crossAx val="2094734552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="1"/>
-        <c:minorUnit val="0.5"/>
+        <c:majorUnit val="7.5"/>
+        <c:minorUnit val="3.75"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -1517,10 +1300,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0484233"/>
-          <c:y val="0.0588556"/>
-          <c:w val="0.946577"/>
-          <c:h val="0.855075"/>
+          <c:x val="0.0850571"/>
+          <c:y val="0.0573934"/>
+          <c:w val="0.909943"/>
+          <c:h val="0.858365"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1547,7 +1330,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="diamond"/>
-            <c:size val="4"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -1563,7 +1346,7 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -1589,35 +1372,41 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Sprint2'!$A$2:$A$7</c:f>
+              <c:f>'Burndown'!$A$2:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>US04</c:v>
+                  <c:v>2/13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>T04.01</c:v>
+                  <c:v>2/28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>T04.01</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v/>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>US10</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>T10.01</c:v>
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint2'!$B$2:$B$7</c:f>
+              <c:f>'Burndown'!$B$2:$B$7</c:f>
               <c:numCache>
-                <c:ptCount val="0"/>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>36.000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.000000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1634,7 +1423,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -1711,8 +1500,8 @@
         <c:crossAx val="2094734552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="1"/>
-        <c:minorUnit val="0.5"/>
+        <c:majorUnit val="1.5"/>
+        <c:minorUnit val="0.75"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -1748,16 +1537,16 @@
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>119868</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>768821</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>11640</xdr:rowOff>
+      <xdr:rowOff>11641</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>220652</xdr:colOff>
+      <xdr:colOff>249979</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>10230</xdr:rowOff>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1765,8 +1554,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="945368" y="3573990"/>
-        <a:ext cx="4444185" cy="2589391"/>
+        <a:off x="768821" y="3573991"/>
+        <a:ext cx="4650059" cy="2655361"/>
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1779,15 +1568,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>401163</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>44321</xdr:rowOff>
+      <xdr:colOff>450002</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>39469</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1173094</xdr:colOff>
+      <xdr:colOff>1134993</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>129935</xdr:rowOff>
+      <xdr:rowOff>118647</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1796,10 +1585,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1226663" y="1015871"/>
-          <a:ext cx="1495832" cy="1542940"/>
-          <a:chOff x="-10462" y="-56388"/>
-          <a:chExt cx="1457455" cy="1341685"/>
+          <a:off x="1275502" y="1334869"/>
+          <a:ext cx="1408892" cy="1212654"/>
+          <a:chOff x="0" y="-68770"/>
+          <a:chExt cx="1370791" cy="1054480"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp>
@@ -1809,8 +1598,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="0" y="170034"/>
-            <a:ext cx="1446993" cy="1115264"/>
+            <a:off x="0" y="0"/>
+            <a:ext cx="1370792" cy="843297"/>
           </a:xfrm>
           <a:custGeom>
             <a:avLst/>
@@ -1906,8 +1695,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="-10463" y="-56389"/>
-            <a:ext cx="1290920" cy="864612"/>
+            <a:off x="26670" y="-68771"/>
+            <a:ext cx="1149774" cy="1054482"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1925,7 +1714,7 @@
           </a:extLst>
         </xdr:spPr>
         <xdr:txBody>
-          <a:bodyPr wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" anchor="t">
+          <a:bodyPr wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" anchor="t">
             <a:spAutoFit/>
           </a:bodyPr>
           <a:lstStyle/>
@@ -2029,15 +1818,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>45648</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>134752</xdr:rowOff>
+      <xdr:colOff>94400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>40690</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>567331</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>133450</xdr:rowOff>
+      <xdr:colOff>518582</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>63449</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2046,10 +1835,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5214548" y="1106302"/>
-          <a:ext cx="1359883" cy="1132174"/>
-          <a:chOff x="-10347" y="-44006"/>
-          <a:chExt cx="1321176" cy="984498"/>
+          <a:off x="5263300" y="1336090"/>
+          <a:ext cx="1262383" cy="994310"/>
+          <a:chOff x="0" y="-56388"/>
+          <a:chExt cx="1224282" cy="864616"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp>
@@ -2059,8 +1848,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="-1" y="125178"/>
-            <a:ext cx="1300487" cy="815315"/>
+            <a:off x="0" y="0"/>
+            <a:ext cx="1224283" cy="616493"/>
           </a:xfrm>
           <a:custGeom>
             <a:avLst/>
@@ -2156,8 +1945,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="-10348" y="-44007"/>
-            <a:ext cx="1321178" cy="674748"/>
+            <a:off x="26669" y="-56388"/>
+            <a:ext cx="1170944" cy="864616"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2175,7 +1964,7 @@
           </a:extLst>
         </xdr:spPr>
         <xdr:txBody>
-          <a:bodyPr wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" anchor="t">
+          <a:bodyPr wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" anchor="t">
             <a:spAutoFit/>
           </a:bodyPr>
           <a:lstStyle/>
@@ -2227,16 +2016,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1171888</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>53381</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>13970</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>32242</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>186163</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>114584</xdr:rowOff>
+      <xdr:colOff>137583</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>103493</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2245,10 +2034,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2721288" y="863006"/>
-          <a:ext cx="1160576" cy="1518529"/>
-          <a:chOff x="-10131" y="-56388"/>
-          <a:chExt cx="1121775" cy="1320459"/>
+          <a:off x="2769870" y="1165717"/>
+          <a:ext cx="1063414" cy="1042802"/>
+          <a:chOff x="0" y="-56387"/>
+          <a:chExt cx="1025312" cy="906784"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp>
@@ -2258,8 +2047,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="0" y="139419"/>
-            <a:ext cx="1101516" cy="1124652"/>
+            <a:off x="0" y="0"/>
+            <a:ext cx="1025314" cy="850397"/>
           </a:xfrm>
           <a:custGeom>
             <a:avLst/>
@@ -2355,8 +2144,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="-10132" y="-56389"/>
-            <a:ext cx="1121776" cy="864612"/>
+            <a:off x="26669" y="-56388"/>
+            <a:ext cx="971974" cy="864617"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2374,7 +2163,7 @@
           </a:extLst>
         </xdr:spPr>
         <xdr:txBody>
-          <a:bodyPr wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" anchor="t">
+          <a:bodyPr wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" anchor="t">
             <a:spAutoFit/>
           </a:bodyPr>
           <a:lstStyle/>
@@ -2427,15 +2216,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>96518</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>97853</xdr:rowOff>
+      <xdr:colOff>134619</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>4542</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>43180</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>76909</xdr:rowOff>
+      <xdr:colOff>5079</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>83720</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2444,10 +2233,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3792218" y="1231328"/>
-          <a:ext cx="467363" cy="950607"/>
-          <a:chOff x="0" y="-44005"/>
-          <a:chExt cx="429262" cy="826614"/>
+          <a:off x="3830319" y="1461867"/>
+          <a:ext cx="391161" cy="1212654"/>
+          <a:chOff x="0" y="-68770"/>
+          <a:chExt cx="355600" cy="1054480"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp>
@@ -2457,8 +2246,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="0" y="155795"/>
-            <a:ext cx="429263" cy="626815"/>
+            <a:off x="0" y="0"/>
+            <a:ext cx="355601" cy="473959"/>
           </a:xfrm>
           <a:custGeom>
             <a:avLst/>
@@ -2554,8 +2343,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2656" y="-44006"/>
-            <a:ext cx="423948" cy="674748"/>
+            <a:off x="32511" y="-68771"/>
+            <a:ext cx="290578" cy="1054482"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2573,7 +2362,7 @@
           </a:extLst>
         </xdr:spPr>
         <xdr:txBody>
-          <a:bodyPr wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" anchor="t">
+          <a:bodyPr wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" anchor="t">
             <a:spAutoFit/>
           </a:bodyPr>
           <a:lstStyle/>
@@ -2676,16 +2465,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>473334</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>56521</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1270</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>45955</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>215850</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>42521</xdr:rowOff>
+      <xdr:colOff>167216</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>20855</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2694,10 +2483,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4169034" y="866146"/>
-          <a:ext cx="1215717" cy="1605251"/>
-          <a:chOff x="-10199" y="-56388"/>
-          <a:chExt cx="1176944" cy="1395868"/>
+          <a:off x="4217670" y="1179430"/>
+          <a:ext cx="1118447" cy="1108376"/>
+          <a:chOff x="0" y="-56388"/>
+          <a:chExt cx="1080345" cy="963804"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp>
@@ -2707,8 +2496,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="-2" y="139418"/>
-            <a:ext cx="1156550" cy="1200063"/>
+            <a:off x="0" y="0"/>
+            <a:ext cx="1080346" cy="907417"/>
           </a:xfrm>
           <a:custGeom>
             <a:avLst/>
@@ -2804,8 +2593,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="-10200" y="-56389"/>
-            <a:ext cx="1176945" cy="864612"/>
+            <a:off x="26669" y="-56388"/>
+            <a:ext cx="1027007" cy="864617"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2823,7 +2612,7 @@
           </a:extLst>
         </xdr:spPr>
         <xdr:txBody>
-          <a:bodyPr wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" anchor="t">
+          <a:bodyPr wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" anchor="t">
             <a:spAutoFit/>
           </a:bodyPr>
           <a:lstStyle/>
@@ -2876,15 +2665,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>187792</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>100687</xdr:rowOff>
+      <xdr:colOff>225892</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>44136</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>694326</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>83186</xdr:rowOff>
+      <xdr:colOff>645579</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>79025</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2893,10 +2682,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5356692" y="4634587"/>
-          <a:ext cx="1344735" cy="1439825"/>
-          <a:chOff x="0" y="-44006"/>
-          <a:chExt cx="1306330" cy="1252020"/>
+          <a:off x="5394792" y="4901886"/>
+          <a:ext cx="1257888" cy="1006440"/>
+          <a:chOff x="0" y="-56388"/>
+          <a:chExt cx="1219786" cy="875164"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp>
@@ -2906,8 +2695,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="0" y="125178"/>
-            <a:ext cx="1295990" cy="1082837"/>
+            <a:off x="0" y="0"/>
+            <a:ext cx="1219788" cy="818777"/>
           </a:xfrm>
           <a:custGeom>
             <a:avLst/>
@@ -3003,8 +2792,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="11872" y="-44007"/>
-            <a:ext cx="1294459" cy="674748"/>
+            <a:off x="47577" y="-56388"/>
+            <a:ext cx="1145541" cy="864616"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3022,7 +2811,7 @@
           </a:extLst>
         </xdr:spPr>
         <xdr:txBody>
-          <a:bodyPr wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" anchor="t">
+          <a:bodyPr wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" anchor="t">
             <a:spAutoFit/>
           </a:bodyPr>
           <a:lstStyle/>
@@ -3079,16 +2868,16 @@
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>119867</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>768821</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>11642</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>221667</xdr:colOff>
+      <xdr:colOff>249979</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>10231</xdr:rowOff>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3096,8 +2885,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="945367" y="1468967"/>
-        <a:ext cx="4343601" cy="2589390"/>
+        <a:off x="768821" y="1468967"/>
+        <a:ext cx="4548459" cy="2655360"/>
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3255,9 +3044,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
+                <a:alpha val="38000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -3337,7 +3126,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -3365,10 +3154,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -3624,9 +3413,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="35000"/>
+              <a:alpha val="38000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -3914,7 +3703,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -3942,10 +3731,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -4196,321 +3985,192 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="1" max="1" width="2" style="6" customWidth="1"/>
     <col min="2" max="4" width="33.6016" customWidth="1"/>
-    <col min="2" max="2" width="33.6719" style="6" customWidth="1"/>
-    <col min="3" max="3" width="33.6719" style="6" customWidth="1"/>
-    <col min="4" max="4" width="33.6719" style="6" customWidth="1"/>
-    <col min="5" max="5" width="10" style="6" customWidth="1"/>
-    <col min="6" max="256" width="10" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" s="7"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="9"/>
-    </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
-    </row>
     <row r="3" ht="0.05" customHeight="1">
-      <c r="A3" s="10"/>
-      <c r="B3" t="s" s="13">
+      <c r="B3" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
+      <c r="C3"/>
+      <c r="D3"/>
     </row>
     <row r="7">
-      <c r="A7" s="10"/>
-      <c r="B7" t="s" s="14">
+      <c r="B7" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C7" t="s" s="14">
+      <c r="C7" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D7" t="s" s="14">
+      <c r="D7" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="E7" s="12"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
     </row>
     <row r="9">
-      <c r="A9" s="10"/>
-      <c r="B9" t="s" s="15">
-        <v>6</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="12"/>
+      <c r="B9" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10">
-      <c r="A10" s="10"/>
-      <c r="B10" s="17"/>
-      <c r="C10" t="s" s="18">
+      <c r="B10" s="4"/>
+      <c r="C10" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="D10" t="s" s="19">
-        <v>7</v>
-      </c>
-      <c r="E10" s="12"/>
-    </row>
-    <row r="11" ht="13" customHeight="1">
-      <c r="A11" s="10"/>
+      <c r="D10" t="s" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="B11" t="s" s="3">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="12"/>
-    </row>
-    <row r="12" ht="13" customHeight="1">
-      <c r="A12" s="10"/>
+    </row>
+    <row r="12">
       <c r="B12" s="4"/>
       <c r="C12" t="s" s="4">
         <v>5</v>
       </c>
       <c r="D12" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="E12" s="12"/>
-    </row>
-    <row r="13" ht="13" customHeight="1">
-      <c r="A13" s="10"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="B13" t="s" s="3">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="12"/>
-    </row>
-    <row r="14" ht="13" customHeight="1">
-      <c r="A14" s="10"/>
+    </row>
+    <row r="14">
       <c r="B14" s="4"/>
       <c r="C14" t="s" s="4">
         <v>5</v>
       </c>
       <c r="D14" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="E14" s="12"/>
-    </row>
-    <row r="15" ht="13" customHeight="1">
-      <c r="A15" s="10"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="B15" t="s" s="3">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="12"/>
-    </row>
-    <row r="16" ht="13" customHeight="1">
-      <c r="A16" s="10"/>
+    </row>
+    <row r="16">
       <c r="B16" s="4"/>
       <c r="C16" t="s" s="4">
         <v>5</v>
       </c>
       <c r="D16" t="s" s="5">
-        <v>10</v>
-      </c>
-      <c r="E16" s="12"/>
-    </row>
-    <row r="17" ht="13" customHeight="1">
-      <c r="A17" s="10"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="B17" t="s" s="3">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="12"/>
-    </row>
-    <row r="18" ht="13" customHeight="1">
-      <c r="A18" s="10"/>
+    </row>
+    <row r="18">
       <c r="B18" s="4"/>
       <c r="C18" t="s" s="4">
         <v>5</v>
       </c>
       <c r="D18" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="E18" s="12"/>
-    </row>
-    <row r="19" ht="13" customHeight="1">
-      <c r="A19" s="10"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="B19" t="s" s="3">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="12"/>
-    </row>
-    <row r="20" ht="13" customHeight="1">
-      <c r="A20" s="10"/>
+    </row>
+    <row r="20">
       <c r="B20" s="4"/>
       <c r="C20" t="s" s="4">
         <v>5</v>
       </c>
       <c r="D20" t="s" s="5">
-        <v>14</v>
-      </c>
-      <c r="E20" s="12"/>
-    </row>
-    <row r="21" ht="13" customHeight="1">
-      <c r="A21" s="10"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="B21" t="s" s="3">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="12"/>
-    </row>
-    <row r="22" ht="13" customHeight="1">
-      <c r="A22" s="10"/>
+    </row>
+    <row r="22">
       <c r="B22" s="4"/>
       <c r="C22" t="s" s="4">
         <v>5</v>
       </c>
       <c r="D22" t="s" s="5">
-        <v>16</v>
-      </c>
-      <c r="E22" s="12"/>
-    </row>
-    <row r="23" ht="13" customHeight="1">
-      <c r="A23" s="10"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="B23" t="s" s="3">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="12"/>
-    </row>
-    <row r="24" ht="13" customHeight="1">
-      <c r="A24" s="10"/>
+    </row>
+    <row r="24">
       <c r="B24" s="4"/>
       <c r="C24" t="s" s="4">
         <v>5</v>
       </c>
       <c r="D24" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="E24" s="12"/>
-    </row>
-    <row r="25" ht="13" customHeight="1">
-      <c r="A25" s="10"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="B25" t="s" s="3">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="12"/>
-    </row>
-    <row r="26" ht="13" customHeight="1">
-      <c r="A26" s="20"/>
+    </row>
+    <row r="26">
       <c r="B26" s="4"/>
       <c r="C26" t="s" s="4">
         <v>5</v>
       </c>
       <c r="D26" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="E26" s="21"/>
-    </row>
-    <row r="27" ht="13" customHeight="1">
-      <c r="A27" s="7"/>
-      <c r="B27" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="9"/>
-    </row>
-    <row r="28" ht="13" customHeight="1">
-      <c r="A28" s="20"/>
-      <c r="B28" s="4"/>
-      <c r="C28" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="D28" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="E28" s="21"/>
+        <v>126</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B3:D3"/>
+  <mergeCells count="1">
     <mergeCell ref="B3:D3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D10" location="'Export Summary'!R1C1" tooltip="" display="Export Summary"/>
     <hyperlink ref="D10" location="'Team'!R1C1" tooltip="" display="Team"/>
-    <hyperlink ref="D12" location="'Team'!R1C1" tooltip="" display="Team"/>
-    <hyperlink ref="D14" location="'Backlog'!R1C1" tooltip="" display="Backlog"/>
-    <hyperlink ref="D16" location="'Burndown README'!R1C1" tooltip="" display="Burndown README"/>
-    <hyperlink ref="D18" location="'Burndown'!R1C1" tooltip="" display="Burndown"/>
-    <hyperlink ref="D20" location="'Sprint1'!R1C1" tooltip="" display="Sprint1"/>
-    <hyperlink ref="D22" location="'Sprint2'!R1C1" tooltip="" display="Sprint2"/>
-    <hyperlink ref="D24" location="'Sprint3'!R1C1" tooltip="" display="Sprint3"/>
-    <hyperlink ref="D26" location="'Sprint4'!R1C1" tooltip="" display="Sprint4"/>
-    <hyperlink ref="D28" location="'Stories'!R1C1" tooltip="" display="Stories"/>
-    <hyperlink ref="D12" location="'Team'!R1C1" tooltip="" display="Team"/>
-    <hyperlink ref="D14" location="'Backlog'!R1C1" tooltip="" display="Backlog"/>
-    <hyperlink ref="D16" location="'Burndown README'!R1C1" tooltip="" display="Burndown README"/>
-    <hyperlink ref="D18" location="'Burndown'!R1C1" tooltip="" display="Burndown"/>
-    <hyperlink ref="D20" location="'Sprint1'!R1C1" tooltip="" display="Sprint1"/>
-    <hyperlink ref="D22" location="'Sprint2'!R1C1" tooltip="" display="Sprint2"/>
-    <hyperlink ref="D24" location="'Sprint3'!R1C1" tooltip="" display="Sprint3"/>
-    <hyperlink ref="D26" location="'Sprint4'!R1C1" tooltip="" display="Sprint4"/>
-    <hyperlink ref="D28" location="'Stories'!R1C1" tooltip="" display="Stories"/>
+    <hyperlink ref="D12" location="'Backlog'!R1C1" tooltip="" display="Backlog"/>
+    <hyperlink ref="D14" location="'Burndown README'!R1C1" tooltip="" display="Burndown README"/>
+    <hyperlink ref="D16" location="'Burndown'!R1C1" tooltip="" display="Burndown"/>
+    <hyperlink ref="D18" location="'Sprint1'!R1C1" tooltip="" display="Sprint1"/>
+    <hyperlink ref="D20" location="'Sprint2'!R1C1" tooltip="" display="Sprint2"/>
+    <hyperlink ref="D22" location="'Sprint3'!R1C1" tooltip="" display="Sprint3"/>
+    <hyperlink ref="D24" location="'Sprint4'!R1C1" tooltip="" display="Sprint4"/>
+    <hyperlink ref="D26" location="'Stories'!R1C1" tooltip="" display="Stories"/>
   </hyperlinks>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
@@ -4522,571 +4182,571 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11" style="51" customWidth="1"/>
-    <col min="2" max="2" width="28.1719" style="51" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="51" customWidth="1"/>
-    <col min="4" max="5" width="11" style="51" customWidth="1"/>
-    <col min="6" max="256" width="11" style="51" customWidth="1"/>
+    <col min="1" max="1" width="11" style="37" customWidth="1"/>
+    <col min="2" max="2" width="28.1719" style="37" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="37" customWidth="1"/>
+    <col min="4" max="5" width="11" style="37" customWidth="1"/>
+    <col min="6" max="256" width="11" style="37" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="26">
+      <c r="A1" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s" s="32">
+        <v>127</v>
+      </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" ht="31.5" customHeight="1">
+      <c r="A2" t="s" s="7">
+        <v>128</v>
+      </c>
+      <c r="B2" t="s" s="7">
+        <v>129</v>
+      </c>
+      <c r="C2" t="s" s="38">
+        <v>130</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" t="s" s="7">
+        <v>131</v>
+      </c>
+      <c r="B3" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s" s="38">
+        <v>132</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s" s="7">
+        <v>133</v>
+      </c>
+      <c r="C4" t="s" s="38">
+        <v>134</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" ht="31.5" customHeight="1">
+      <c r="A5" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s" s="38">
+        <v>135</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" t="s" s="7">
+        <v>136</v>
+      </c>
+      <c r="B6" t="s" s="7">
         <v>48</v>
       </c>
-      <c r="B1" t="s" s="26">
+      <c r="C6" t="s" s="38">
+        <v>137</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" t="s" s="7">
+        <v>138</v>
+      </c>
+      <c r="B7" t="s" s="7">
+        <v>139</v>
+      </c>
+      <c r="C7" t="s" s="38">
+        <v>140</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" ht="47.25" customHeight="1">
+      <c r="A8" t="s" s="7">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s" s="7">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s" s="38">
+        <v>141</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" ht="31.5" customHeight="1">
+      <c r="A9" t="s" s="7">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s" s="7">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s" s="38">
+        <v>142</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" ht="31.5" customHeight="1">
+      <c r="A10" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s" s="7">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s" s="38">
+        <v>143</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" ht="31.5" customHeight="1">
+      <c r="A11" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s" s="7">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s" s="38">
+        <v>144</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" ht="31.5" customHeight="1">
+      <c r="A12" t="s" s="7">
+        <v>145</v>
+      </c>
+      <c r="B12" t="s" s="7">
+        <v>146</v>
+      </c>
+      <c r="C12" t="s" s="38">
+        <v>147</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" ht="47.25" customHeight="1">
+      <c r="A13" t="s" s="7">
+        <v>148</v>
+      </c>
+      <c r="B13" t="s" s="7">
+        <v>149</v>
+      </c>
+      <c r="C13" t="s" s="38">
+        <v>150</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" ht="63" customHeight="1">
+      <c r="A14" t="s" s="7">
+        <v>151</v>
+      </c>
+      <c r="B14" t="s" s="7">
+        <v>152</v>
+      </c>
+      <c r="C14" t="s" s="38">
+        <v>153</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" ht="31.5" customHeight="1">
+      <c r="A15" t="s" s="7">
+        <v>154</v>
+      </c>
+      <c r="B15" t="s" s="7">
+        <v>155</v>
+      </c>
+      <c r="C15" t="s" s="38">
+        <v>156</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" t="s" s="7">
+        <v>157</v>
+      </c>
+      <c r="B16" t="s" s="7">
+        <v>158</v>
+      </c>
+      <c r="C16" t="s" s="38">
+        <v>159</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" ht="31.5" customHeight="1">
+      <c r="A17" t="s" s="7">
+        <v>160</v>
+      </c>
+      <c r="B17" t="s" s="7">
+        <v>161</v>
+      </c>
+      <c r="C17" t="s" s="38">
+        <v>162</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" t="s" s="7">
+        <v>163</v>
+      </c>
+      <c r="B18" t="s" s="7">
+        <v>164</v>
+      </c>
+      <c r="C18" t="s" s="38">
+        <v>165</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" t="s" s="7">
+        <v>166</v>
+      </c>
+      <c r="B19" t="s" s="7">
+        <v>167</v>
+      </c>
+      <c r="C19" t="s" s="38">
+        <v>168</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" t="s" s="7">
+        <v>169</v>
+      </c>
+      <c r="B20" t="s" s="7">
+        <v>170</v>
+      </c>
+      <c r="C20" t="s" s="38">
+        <v>171</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" ht="31.5" customHeight="1">
+      <c r="A21" t="s" s="7">
+        <v>172</v>
+      </c>
+      <c r="B21" t="s" s="7">
+        <v>173</v>
+      </c>
+      <c r="C21" t="s" s="38">
+        <v>174</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" ht="31.5" customHeight="1">
+      <c r="A22" t="s" s="7">
+        <v>61</v>
+      </c>
+      <c r="B22" t="s" s="7">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s" s="38">
+        <v>175</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" ht="31.5" customHeight="1">
+      <c r="A23" t="s" s="7">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C23" t="s" s="38">
+        <v>176</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" ht="31.5" customHeight="1">
+      <c r="A24" t="s" s="7">
+        <v>177</v>
+      </c>
+      <c r="B24" t="s" s="7">
+        <v>178</v>
+      </c>
+      <c r="C24" t="s" s="38">
+        <v>179</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" ht="47.25" customHeight="1">
+      <c r="A25" t="s" s="7">
+        <v>180</v>
+      </c>
+      <c r="B25" t="s" s="7">
+        <v>181</v>
+      </c>
+      <c r="C25" t="s" s="38">
+        <v>182</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" ht="31.5" customHeight="1">
+      <c r="A26" t="s" s="7">
         <v>49</v>
       </c>
-      <c r="C1" t="s" s="46">
-        <v>135</v>
-      </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-    </row>
-    <row r="2" ht="31.5" customHeight="1">
-      <c r="A2" t="s" s="26">
-        <v>136</v>
-      </c>
-      <c r="B2" t="s" s="26">
-        <v>137</v>
-      </c>
-      <c r="C2" t="s" s="52">
-        <v>138</v>
-      </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" t="s" s="26">
-        <v>139</v>
-      </c>
-      <c r="B3" t="s" s="26">
-        <v>63</v>
-      </c>
-      <c r="C3" t="s" s="52">
-        <v>140</v>
-      </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" t="s" s="26">
-        <v>60</v>
-      </c>
-      <c r="B4" t="s" s="26">
-        <v>141</v>
-      </c>
-      <c r="C4" t="s" s="52">
-        <v>142</v>
-      </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-    </row>
-    <row r="5" ht="31.5" customHeight="1">
-      <c r="A5" t="s" s="26">
+      <c r="B26" t="s" s="7">
+        <v>50</v>
+      </c>
+      <c r="C26" t="s" s="38">
+        <v>183</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" ht="126" customHeight="1">
+      <c r="A27" t="s" s="7">
+        <v>184</v>
+      </c>
+      <c r="B27" t="s" s="7">
+        <v>185</v>
+      </c>
+      <c r="C27" t="s" s="38">
+        <v>186</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" t="s" s="7">
+        <v>51</v>
+      </c>
+      <c r="B28" t="s" s="7">
         <v>52</v>
       </c>
-      <c r="B5" t="s" s="26">
-        <v>53</v>
-      </c>
-      <c r="C5" t="s" s="52">
-        <v>143</v>
-      </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" t="s" s="26">
-        <v>144</v>
-      </c>
-      <c r="B6" t="s" s="26">
-        <v>65</v>
-      </c>
-      <c r="C6" t="s" s="52">
-        <v>145</v>
-      </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" t="s" s="26">
-        <v>146</v>
-      </c>
-      <c r="B7" t="s" s="26">
-        <v>147</v>
-      </c>
-      <c r="C7" t="s" s="52">
-        <v>148</v>
-      </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-    </row>
-    <row r="8" ht="47.25" customHeight="1">
-      <c r="A8" t="s" s="26">
-        <v>70</v>
-      </c>
-      <c r="B8" t="s" s="26">
-        <v>71</v>
-      </c>
-      <c r="C8" t="s" s="52">
-        <v>149</v>
-      </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-    </row>
-    <row r="9" ht="31.5" customHeight="1">
-      <c r="A9" t="s" s="26">
-        <v>73</v>
-      </c>
-      <c r="B9" t="s" s="26">
-        <v>74</v>
-      </c>
-      <c r="C9" t="s" s="52">
-        <v>150</v>
-      </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-    </row>
-    <row r="10" ht="31.5" customHeight="1">
-      <c r="A10" t="s" s="26">
-        <v>75</v>
-      </c>
-      <c r="B10" t="s" s="26">
-        <v>76</v>
-      </c>
-      <c r="C10" t="s" s="52">
-        <v>151</v>
-      </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-    </row>
-    <row r="11" ht="31.5" customHeight="1">
-      <c r="A11" t="s" s="26">
-        <v>55</v>
-      </c>
-      <c r="B11" t="s" s="26">
-        <v>56</v>
-      </c>
-      <c r="C11" t="s" s="52">
-        <v>152</v>
-      </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-    </row>
-    <row r="12" ht="31.5" customHeight="1">
-      <c r="A12" t="s" s="26">
-        <v>153</v>
-      </c>
-      <c r="B12" t="s" s="26">
-        <v>154</v>
-      </c>
-      <c r="C12" t="s" s="52">
-        <v>155</v>
-      </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-    </row>
-    <row r="13" ht="47.25" customHeight="1">
-      <c r="A13" t="s" s="26">
-        <v>156</v>
-      </c>
-      <c r="B13" t="s" s="26">
-        <v>157</v>
-      </c>
-      <c r="C13" t="s" s="52">
-        <v>158</v>
-      </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-    </row>
-    <row r="14" ht="63" customHeight="1">
-      <c r="A14" t="s" s="26">
-        <v>159</v>
-      </c>
-      <c r="B14" t="s" s="26">
-        <v>160</v>
-      </c>
-      <c r="C14" t="s" s="52">
-        <v>161</v>
-      </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-    </row>
-    <row r="15" ht="31.5" customHeight="1">
-      <c r="A15" t="s" s="26">
-        <v>162</v>
-      </c>
-      <c r="B15" t="s" s="26">
-        <v>163</v>
-      </c>
-      <c r="C15" t="s" s="52">
-        <v>164</v>
-      </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" t="s" s="26">
-        <v>165</v>
-      </c>
-      <c r="B16" t="s" s="26">
-        <v>166</v>
-      </c>
-      <c r="C16" t="s" s="52">
-        <v>167</v>
-      </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-    </row>
-    <row r="17" ht="31.5" customHeight="1">
-      <c r="A17" t="s" s="26">
-        <v>168</v>
-      </c>
-      <c r="B17" t="s" s="26">
-        <v>169</v>
-      </c>
-      <c r="C17" t="s" s="52">
-        <v>170</v>
-      </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" t="s" s="26">
-        <v>171</v>
-      </c>
-      <c r="B18" t="s" s="26">
-        <v>172</v>
-      </c>
-      <c r="C18" t="s" s="52">
-        <v>173</v>
-      </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" t="s" s="26">
-        <v>174</v>
-      </c>
-      <c r="B19" t="s" s="26">
-        <v>175</v>
-      </c>
-      <c r="C19" t="s" s="52">
-        <v>176</v>
-      </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" t="s" s="26">
-        <v>177</v>
-      </c>
-      <c r="B20" t="s" s="26">
-        <v>178</v>
-      </c>
-      <c r="C20" t="s" s="52">
-        <v>179</v>
-      </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-    </row>
-    <row r="21" ht="31.5" customHeight="1">
-      <c r="A21" t="s" s="26">
-        <v>180</v>
-      </c>
-      <c r="B21" t="s" s="26">
-        <v>181</v>
-      </c>
-      <c r="C21" t="s" s="52">
-        <v>182</v>
-      </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-    </row>
-    <row r="22" ht="31.5" customHeight="1">
-      <c r="A22" t="s" s="26">
-        <v>77</v>
-      </c>
-      <c r="B22" t="s" s="26">
-        <v>78</v>
-      </c>
-      <c r="C22" t="s" s="52">
-        <v>183</v>
-      </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-    </row>
-    <row r="23" ht="31.5" customHeight="1">
-      <c r="A23" t="s" s="26">
-        <v>58</v>
-      </c>
-      <c r="B23" t="s" s="26">
-        <v>59</v>
-      </c>
-      <c r="C23" t="s" s="52">
-        <v>184</v>
-      </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-    </row>
-    <row r="24" ht="31.5" customHeight="1">
-      <c r="A24" t="s" s="26">
-        <v>185</v>
-      </c>
-      <c r="B24" t="s" s="26">
-        <v>186</v>
-      </c>
-      <c r="C24" t="s" s="52">
+      <c r="C28" t="s" s="38">
         <v>187</v>
       </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-    </row>
-    <row r="25" ht="47.25" customHeight="1">
-      <c r="A25" t="s" s="26">
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+    </row>
+    <row r="29" ht="31.5" customHeight="1">
+      <c r="A29" t="s" s="7">
+        <v>104</v>
+      </c>
+      <c r="B29" t="s" s="7">
+        <v>105</v>
+      </c>
+      <c r="C29" t="s" s="38">
         <v>188</v>
       </c>
-      <c r="B25" t="s" s="26">
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" t="s" s="7">
         <v>189</v>
       </c>
-      <c r="C25" t="s" s="52">
+      <c r="B30" t="s" s="7">
         <v>190</v>
       </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-    </row>
-    <row r="26" ht="31.5" customHeight="1">
-      <c r="A26" t="s" s="26">
-        <v>66</v>
-      </c>
-      <c r="B26" t="s" s="26">
-        <v>67</v>
-      </c>
-      <c r="C26" t="s" s="52">
+      <c r="C30" t="s" s="38">
         <v>191</v>
       </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-    </row>
-    <row r="27" ht="126" customHeight="1">
-      <c r="A27" t="s" s="26">
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" t="s" s="7">
+        <v>110</v>
+      </c>
+      <c r="B31" t="s" s="7">
+        <v>111</v>
+      </c>
+      <c r="C31" t="s" s="38">
         <v>192</v>
       </c>
-      <c r="B27" t="s" s="26">
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+    </row>
+    <row r="32" ht="31.5" customHeight="1">
+      <c r="A32" t="s" s="7">
+        <v>113</v>
+      </c>
+      <c r="B32" t="s" s="7">
+        <v>114</v>
+      </c>
+      <c r="C32" t="s" s="38">
         <v>193</v>
       </c>
-      <c r="C27" t="s" s="52">
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" t="s" s="7">
+        <v>115</v>
+      </c>
+      <c r="B33" t="s" s="7">
+        <v>116</v>
+      </c>
+      <c r="C33" t="s" s="38">
         <v>194</v>
       </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" t="s" s="26">
-        <v>68</v>
-      </c>
-      <c r="B28" t="s" s="26">
-        <v>69</v>
-      </c>
-      <c r="C28" t="s" s="52">
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+    </row>
+    <row r="34" ht="31.5" customHeight="1">
+      <c r="A34" t="s" s="7">
         <v>195</v>
       </c>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-    </row>
-    <row r="29" ht="31.5" customHeight="1">
-      <c r="A29" t="s" s="26">
-        <v>114</v>
-      </c>
-      <c r="B29" t="s" s="26">
-        <v>115</v>
-      </c>
-      <c r="C29" t="s" s="52">
+      <c r="B34" t="s" s="7">
         <v>196</v>
       </c>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" t="s" s="26">
+      <c r="C34" t="s" s="38">
         <v>197</v>
       </c>
-      <c r="B30" t="s" s="26">
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+    </row>
+    <row r="35" ht="47.25" customHeight="1">
+      <c r="A35" t="s" s="7">
         <v>198</v>
       </c>
-      <c r="C30" t="s" s="52">
+      <c r="B35" t="s" s="7">
         <v>199</v>
       </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" t="s" s="26">
+      <c r="C35" t="s" s="38">
+        <v>200</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+    </row>
+    <row r="36" ht="31.5" customHeight="1">
+      <c r="A36" t="s" s="7">
+        <v>108</v>
+      </c>
+      <c r="B36" t="s" s="7">
+        <v>109</v>
+      </c>
+      <c r="C36" t="s" s="38">
+        <v>201</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+    </row>
+    <row r="37" ht="31.5" customHeight="1">
+      <c r="A37" t="s" s="7">
+        <v>202</v>
+      </c>
+      <c r="B37" t="s" s="7">
+        <v>203</v>
+      </c>
+      <c r="C37" t="s" s="38">
+        <v>204</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+    </row>
+    <row r="38" ht="31.5" customHeight="1">
+      <c r="A38" t="s" s="7">
+        <v>118</v>
+      </c>
+      <c r="B38" t="s" s="7">
+        <v>119</v>
+      </c>
+      <c r="C38" t="s" s="38">
+        <v>205</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+    </row>
+    <row r="39" ht="31.5" customHeight="1">
+      <c r="A39" t="s" s="7">
+        <v>206</v>
+      </c>
+      <c r="B39" t="s" s="7">
+        <v>207</v>
+      </c>
+      <c r="C39" t="s" s="38">
+        <v>208</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+    </row>
+    <row r="40" ht="31.5" customHeight="1">
+      <c r="A40" t="s" s="7">
+        <v>209</v>
+      </c>
+      <c r="B40" t="s" s="7">
+        <v>210</v>
+      </c>
+      <c r="C40" t="s" s="38">
+        <v>211</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+    </row>
+    <row r="41" ht="31.5" customHeight="1">
+      <c r="A41" t="s" s="7">
+        <v>212</v>
+      </c>
+      <c r="B41" t="s" s="7">
+        <v>213</v>
+      </c>
+      <c r="C41" t="s" s="38">
+        <v>214</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+    </row>
+    <row r="42" ht="31.5" customHeight="1">
+      <c r="A42" t="s" s="7">
         <v>120</v>
       </c>
-      <c r="B31" t="s" s="26">
+      <c r="B42" t="s" s="7">
         <v>121</v>
       </c>
-      <c r="C31" t="s" s="52">
-        <v>200</v>
-      </c>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-    </row>
-    <row r="32" ht="31.5" customHeight="1">
-      <c r="A32" t="s" s="26">
+      <c r="C42" t="s" s="38">
+        <v>215</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+    </row>
+    <row r="43" ht="31.5" customHeight="1">
+      <c r="A43" t="s" s="7">
         <v>123</v>
       </c>
-      <c r="B32" t="s" s="26">
+      <c r="B43" t="s" s="7">
         <v>124</v>
       </c>
-      <c r="C32" t="s" s="52">
-        <v>201</v>
-      </c>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" t="s" s="26">
-        <v>125</v>
-      </c>
-      <c r="B33" t="s" s="26">
-        <v>126</v>
-      </c>
-      <c r="C33" t="s" s="52">
-        <v>202</v>
-      </c>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-    </row>
-    <row r="34" ht="31.5" customHeight="1">
-      <c r="A34" t="s" s="26">
-        <v>203</v>
-      </c>
-      <c r="B34" t="s" s="26">
-        <v>204</v>
-      </c>
-      <c r="C34" t="s" s="52">
-        <v>205</v>
-      </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-    </row>
-    <row r="35" ht="47.25" customHeight="1">
-      <c r="A35" t="s" s="26">
-        <v>206</v>
-      </c>
-      <c r="B35" t="s" s="26">
-        <v>207</v>
-      </c>
-      <c r="C35" t="s" s="52">
-        <v>208</v>
-      </c>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-    </row>
-    <row r="36" ht="31.5" customHeight="1">
-      <c r="A36" t="s" s="26">
-        <v>118</v>
-      </c>
-      <c r="B36" t="s" s="26">
-        <v>119</v>
-      </c>
-      <c r="C36" t="s" s="52">
-        <v>209</v>
-      </c>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-    </row>
-    <row r="37" ht="31.5" customHeight="1">
-      <c r="A37" t="s" s="26">
-        <v>210</v>
-      </c>
-      <c r="B37" t="s" s="26">
-        <v>211</v>
-      </c>
-      <c r="C37" t="s" s="52">
-        <v>212</v>
-      </c>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-    </row>
-    <row r="38" ht="31.5" customHeight="1">
-      <c r="A38" t="s" s="26">
-        <v>128</v>
-      </c>
-      <c r="B38" t="s" s="26">
-        <v>129</v>
-      </c>
-      <c r="C38" t="s" s="52">
-        <v>213</v>
-      </c>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-    </row>
-    <row r="39" ht="31.5" customHeight="1">
-      <c r="A39" t="s" s="26">
-        <v>214</v>
-      </c>
-      <c r="B39" t="s" s="26">
-        <v>215</v>
-      </c>
-      <c r="C39" t="s" s="52">
+      <c r="C43" t="s" s="38">
         <v>216</v>
       </c>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-    </row>
-    <row r="40" ht="31.5" customHeight="1">
-      <c r="A40" t="s" s="26">
-        <v>217</v>
-      </c>
-      <c r="B40" t="s" s="26">
-        <v>218</v>
-      </c>
-      <c r="C40" t="s" s="52">
-        <v>219</v>
-      </c>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-    </row>
-    <row r="41" ht="31.5" customHeight="1">
-      <c r="A41" t="s" s="26">
-        <v>220</v>
-      </c>
-      <c r="B41" t="s" s="26">
-        <v>221</v>
-      </c>
-      <c r="C41" t="s" s="52">
-        <v>222</v>
-      </c>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-    </row>
-    <row r="42" ht="31.5" customHeight="1">
-      <c r="A42" t="s" s="26">
-        <v>130</v>
-      </c>
-      <c r="B42" t="s" s="26">
-        <v>131</v>
-      </c>
-      <c r="C42" t="s" s="52">
-        <v>223</v>
-      </c>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-    </row>
-    <row r="43" ht="31.5" customHeight="1">
-      <c r="A43" t="s" s="26">
-        <v>133</v>
-      </c>
-      <c r="B43" t="s" s="26">
-        <v>134</v>
-      </c>
-      <c r="C43" t="s" s="52">
-        <v>224</v>
-      </c>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5105,128 +4765,128 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="7.85156" style="25" customWidth="1"/>
-    <col min="2" max="2" width="6.5" style="25" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="25" customWidth="1"/>
-    <col min="4" max="5" width="20.5" style="25" customWidth="1"/>
-    <col min="6" max="256" width="11" style="25" customWidth="1"/>
+    <col min="1" max="1" width="7.85156" style="6" customWidth="1"/>
+    <col min="2" max="2" width="6.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="6" customWidth="1"/>
+    <col min="4" max="5" width="20.5" style="6" customWidth="1"/>
+    <col min="6" max="256" width="11" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="26">
+      <c r="A1" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" t="s" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="s" s="7">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s" s="7">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s" s="7">
+        <v>17</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" t="s" s="7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="s" s="7">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s" s="7">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s" s="7">
+        <v>21</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" t="s" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="B1" t="s" s="26">
+      <c r="C6" t="s" s="7">
         <v>25</v>
       </c>
-      <c r="C1" t="s" s="26">
+      <c r="D6" s="8"/>
+      <c r="E6" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="D1" t="s" s="26">
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" t="s" s="9">
         <v>27</v>
       </c>
-      <c r="E1" t="s" s="26">
+      <c r="E9" t="s" s="7">
         <v>28</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="26">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s" s="26">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s" s="26">
-        <v>31</v>
-      </c>
-      <c r="D3" s="27"/>
-      <c r="E3" t="s" s="26">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="26">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s" s="26">
-        <v>34</v>
-      </c>
-      <c r="C4" t="s" s="26">
-        <v>35</v>
-      </c>
-      <c r="D4" s="27"/>
-      <c r="E4" t="s" s="26">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="26">
-        <v>37</v>
-      </c>
-      <c r="B5" t="s" s="26">
-        <v>38</v>
-      </c>
-      <c r="C5" t="s" s="26">
-        <v>39</v>
-      </c>
-      <c r="D5" s="27"/>
-      <c r="E5" t="s" s="26">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="s" s="26">
-        <v>41</v>
-      </c>
-      <c r="B6" t="s" s="26">
-        <v>42</v>
-      </c>
-      <c r="C6" t="s" s="26">
-        <v>43</v>
-      </c>
-      <c r="D6" s="27"/>
-      <c r="E6" t="s" s="26">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" t="s" s="28">
-        <v>45</v>
-      </c>
-      <c r="E9" t="s" s="26">
-        <v>46</v>
-      </c>
-    </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5248,233 +4908,233 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.17188" style="29" customWidth="1"/>
-    <col min="2" max="2" width="7.67188" style="29" customWidth="1"/>
-    <col min="3" max="3" width="19.5" style="29" customWidth="1"/>
-    <col min="4" max="4" width="6.67188" style="29" customWidth="1"/>
-    <col min="5" max="5" width="7.67188" style="29" customWidth="1"/>
-    <col min="6" max="256" width="11" style="29" customWidth="1"/>
+    <col min="1" max="1" width="5.17188" style="10" customWidth="1"/>
+    <col min="2" max="2" width="7.67188" style="10" customWidth="1"/>
+    <col min="3" max="3" width="19.5" style="10" customWidth="1"/>
+    <col min="4" max="4" width="6.67188" style="10" customWidth="1"/>
+    <col min="5" max="5" width="7.67188" style="10" customWidth="1"/>
+    <col min="6" max="256" width="11" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="26">
+      <c r="A1" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s" s="7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s" s="7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" s="11">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s" s="7">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="7">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s" s="7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" s="11">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s" s="7">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s" s="7">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s" s="7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" s="11">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s" s="7">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s" s="7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" s="11">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s" s="7">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s" s="7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" s="11">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s" s="7">
         <v>47</v>
       </c>
-      <c r="B1" t="s" s="26">
+      <c r="C7" t="s" s="7">
         <v>48</v>
       </c>
-      <c r="C1" t="s" s="26">
+      <c r="D7" t="s" s="7">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s" s="7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" s="11">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s" s="7">
         <v>49</v>
       </c>
-      <c r="D1" t="s" s="26">
+      <c r="C8" t="s" s="7">
         <v>50</v>
       </c>
-      <c r="E1" t="s" s="26">
+      <c r="D8" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s" s="7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" s="11">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s" s="7">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="30">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="26">
+      <c r="C9" t="s" s="7">
         <v>52</v>
       </c>
-      <c r="C2" t="s" s="26">
+      <c r="D9" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s" s="7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" s="11">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s" s="7">
         <v>53</v>
       </c>
-      <c r="D2" t="s" s="26">
-        <v>29</v>
-      </c>
-      <c r="E2" t="s" s="26">
+      <c r="C10" t="s" s="7">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="30">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s" s="26">
+      <c r="D10" t="s" s="7">
         <v>55</v>
       </c>
-      <c r="C3" t="s" s="26">
+      <c r="E10" t="s" s="7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" s="11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s" s="7">
         <v>56</v>
       </c>
-      <c r="D3" t="s" s="26">
+      <c r="C11" t="s" s="7">
         <v>57</v>
       </c>
-      <c r="E3" t="s" s="26">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="30">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s" s="26">
+      <c r="D11" t="s" s="7">
+        <v>55</v>
+      </c>
+      <c r="E11" t="s" s="7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" s="11">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s" s="7">
         <v>58</v>
       </c>
-      <c r="C4" t="s" s="26">
+      <c r="C12" t="s" s="7">
         <v>59</v>
       </c>
-      <c r="D4" t="s" s="26">
-        <v>33</v>
-      </c>
-      <c r="E4" t="s" s="26">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="30">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s" s="26">
+      <c r="D12" t="s" s="7">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s" s="7">
         <v>60</v>
       </c>
-      <c r="C5" t="s" s="26">
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" s="11">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s" s="7">
         <v>61</v>
       </c>
-      <c r="D5" t="s" s="26">
-        <v>41</v>
-      </c>
-      <c r="E5" t="s" s="26">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="30">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s" s="26">
+      <c r="C13" t="s" s="7">
         <v>62</v>
       </c>
-      <c r="C6" t="s" s="26">
-        <v>63</v>
-      </c>
-      <c r="D6" t="s" s="26">
-        <v>57</v>
-      </c>
-      <c r="E6" t="s" s="26">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="30">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s" s="26">
-        <v>64</v>
-      </c>
-      <c r="C7" t="s" s="26">
-        <v>65</v>
-      </c>
-      <c r="D7" t="s" s="26">
-        <v>57</v>
-      </c>
-      <c r="E7" t="s" s="26">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="30">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s" s="26">
-        <v>66</v>
-      </c>
-      <c r="C8" t="s" s="26">
-        <v>67</v>
-      </c>
-      <c r="D8" t="s" s="26">
-        <v>41</v>
-      </c>
-      <c r="E8" t="s" s="26">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="30">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s" s="26">
-        <v>68</v>
-      </c>
-      <c r="C9" t="s" s="26">
-        <v>69</v>
-      </c>
-      <c r="D9" t="s" s="26">
-        <v>41</v>
-      </c>
-      <c r="E9" t="s" s="26">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="30">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s" s="26">
-        <v>70</v>
-      </c>
-      <c r="C10" t="s" s="26">
-        <v>71</v>
-      </c>
-      <c r="D10" t="s" s="26">
-        <v>72</v>
-      </c>
-      <c r="E10" t="s" s="26">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="30">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s" s="26">
-        <v>73</v>
-      </c>
-      <c r="C11" t="s" s="26">
-        <v>74</v>
-      </c>
-      <c r="D11" t="s" s="26">
-        <v>72</v>
-      </c>
-      <c r="E11" t="s" s="26">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="30">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s" s="26">
-        <v>75</v>
-      </c>
-      <c r="C12" t="s" s="26">
-        <v>76</v>
-      </c>
-      <c r="D12" t="s" s="26">
-        <v>33</v>
-      </c>
-      <c r="E12" t="s" s="26">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="30">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s" s="26">
-        <v>77</v>
-      </c>
-      <c r="C13" t="s" s="26">
-        <v>78</v>
-      </c>
-      <c r="D13" t="s" s="26">
-        <v>33</v>
-      </c>
-      <c r="E13" t="s" s="26">
-        <v>54</v>
+      <c r="D13" t="s" s="7">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s" s="7">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -5494,503 +5154,503 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.8516" style="31" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.8516" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.3516" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.85156" style="31" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="31" customWidth="1"/>
-    <col min="7" max="8" width="11" style="31" customWidth="1"/>
-    <col min="9" max="256" width="11" style="31" customWidth="1"/>
+    <col min="1" max="1" width="10.8516" style="12" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="12" customWidth="1"/>
+    <col min="3" max="3" width="15.8516" style="12" customWidth="1"/>
+    <col min="4" max="4" width="12.3516" style="12" customWidth="1"/>
+    <col min="5" max="5" width="6.85156" style="12" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="12" customWidth="1"/>
+    <col min="7" max="8" width="11" style="12" customWidth="1"/>
+    <col min="9" max="256" width="11" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" t="s" s="26">
-        <v>79</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="A1" t="s" s="13">
+        <v>64</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" t="s" s="26">
-        <v>80</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="A2" t="s" s="13">
+        <v>65</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" t="s" s="26">
-        <v>81</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
+      <c r="A3" t="s" s="13">
+        <v>66</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" t="s" s="26">
-        <v>82</v>
-      </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
+      <c r="A5" t="s" s="13">
+        <v>67</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" t="s" s="26">
-        <v>83</v>
-      </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
+      <c r="A6" t="s" s="13">
+        <v>68</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" t="s" s="26">
-        <v>84</v>
-      </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
+      <c r="A8" t="s" s="13">
+        <v>69</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" t="s" s="26">
-        <v>47</v>
-      </c>
-      <c r="B14" t="s" s="26">
-        <v>85</v>
-      </c>
-      <c r="C14" t="s" s="32">
-        <v>86</v>
-      </c>
-      <c r="D14" t="s" s="26">
-        <v>87</v>
-      </c>
-      <c r="E14" t="s" s="32">
-        <v>88</v>
-      </c>
-      <c r="F14" t="s" s="32">
-        <v>89</v>
-      </c>
-      <c r="G14" t="s" s="26">
-        <v>90</v>
-      </c>
-      <c r="H14" s="27"/>
+      <c r="A14" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s" s="7">
+        <v>70</v>
+      </c>
+      <c r="C14" t="s" s="15">
+        <v>71</v>
+      </c>
+      <c r="D14" t="s" s="7">
+        <v>72</v>
+      </c>
+      <c r="E14" t="s" s="15">
+        <v>73</v>
+      </c>
+      <c r="F14" t="s" s="16">
+        <v>74</v>
+      </c>
+      <c r="G14" t="s" s="7">
+        <v>75</v>
+      </c>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" t="s" s="26">
-        <v>91</v>
-      </c>
-      <c r="B15" s="33">
+      <c r="A15" t="s" s="13">
+        <v>76</v>
+      </c>
+      <c r="B15" s="17">
         <v>42527</v>
       </c>
-      <c r="C15" s="34">
+      <c r="C15" s="18">
         <v>24</v>
       </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="34">
+      <c r="D15" s="19"/>
+      <c r="E15" s="18">
         <v>0</v>
       </c>
-      <c r="F15" s="36"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="27"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" t="s" s="26">
-        <v>92</v>
-      </c>
-      <c r="B16" s="33">
+      <c r="A16" t="s" s="13">
+        <v>77</v>
+      </c>
+      <c r="B16" s="17">
         <v>42540</v>
       </c>
-      <c r="C16" s="34">
+      <c r="C16" s="18">
         <v>18</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="22">
         <f>C15-C16</f>
         <v>6</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="18">
         <v>250</v>
       </c>
-      <c r="F16" s="34">
+      <c r="F16" s="18">
         <v>120</v>
       </c>
-      <c r="G16" s="37">
+      <c r="G16" s="21">
         <f>(E16-E15)/F16*60</f>
         <v>125</v>
       </c>
-      <c r="H16" s="27"/>
+      <c r="H16" s="8"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" t="s" s="26">
-        <v>93</v>
-      </c>
-      <c r="B17" s="33">
+      <c r="A17" t="s" s="13">
+        <v>78</v>
+      </c>
+      <c r="B17" s="17">
         <v>42554</v>
       </c>
-      <c r="C17" s="34">
+      <c r="C17" s="18">
         <v>12</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17" s="22">
         <f>C16-C17</f>
         <v>6</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="18">
         <v>480</v>
       </c>
-      <c r="F17" s="39">
+      <c r="F17" s="23">
         <v>135</v>
       </c>
-      <c r="G17" s="37">
+      <c r="G17" s="21">
         <f>(E17-E16)/F17*60</f>
         <v>102.222222222222</v>
       </c>
-      <c r="H17" s="27"/>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" t="s" s="26">
-        <v>94</v>
-      </c>
-      <c r="B18" s="33">
+      <c r="A18" t="s" s="13">
+        <v>79</v>
+      </c>
+      <c r="B18" s="17">
         <v>42568</v>
       </c>
-      <c r="C18" s="34">
+      <c r="C18" s="18">
         <v>6</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="22">
         <f>C17-C18</f>
         <v>6</v>
       </c>
-      <c r="E18" s="34">
+      <c r="E18" s="18">
         <v>740</v>
       </c>
-      <c r="F18" s="39">
+      <c r="F18" s="23">
         <v>160</v>
       </c>
-      <c r="G18" s="37">
+      <c r="G18" s="21">
         <f>(E18-E17)/F18*60</f>
         <v>97.5</v>
       </c>
-      <c r="H18" s="27"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" t="s" s="26">
-        <v>95</v>
-      </c>
-      <c r="B19" s="33">
+      <c r="A19" t="s" s="13">
+        <v>80</v>
+      </c>
+      <c r="B19" s="17">
         <v>42582</v>
       </c>
-      <c r="C19" s="34">
+      <c r="C19" s="18">
         <v>0</v>
       </c>
-      <c r="D19" s="38">
+      <c r="D19" s="22">
         <f>C18-C19</f>
         <v>6</v>
       </c>
-      <c r="E19" s="34">
+      <c r="E19" s="18">
         <v>1100</v>
       </c>
-      <c r="F19" s="39">
+      <c r="F19" s="23">
         <v>145</v>
       </c>
-      <c r="G19" s="37">
+      <c r="G19" s="21">
         <f>(E19-E18)/F19*60</f>
         <v>148.965517241379</v>
       </c>
-      <c r="H19" s="27"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
     </row>
     <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
     </row>
     <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
     </row>
     <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
     </row>
     <row r="29" ht="12.75" customHeight="1">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
     </row>
     <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="27"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
     </row>
     <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
     </row>
     <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
     </row>
     <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="27"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
     </row>
     <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="27"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
     </row>
     <row r="39" ht="12.75" customHeight="1">
-      <c r="A39" s="27"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6010,281 +5670,281 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.8516" style="41" customWidth="1"/>
-    <col min="2" max="2" width="16.6719" style="41" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="41" customWidth="1"/>
-    <col min="4" max="4" width="7.17188" style="41" customWidth="1"/>
-    <col min="5" max="5" width="6.85156" style="41" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="41" customWidth="1"/>
-    <col min="7" max="7" width="11" style="41" customWidth="1"/>
-    <col min="8" max="256" width="11" style="41" customWidth="1"/>
+    <col min="1" max="1" width="10.8516" style="26" customWidth="1"/>
+    <col min="2" max="2" width="16.6719" style="26" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="26" customWidth="1"/>
+    <col min="4" max="4" width="7.17188" style="26" customWidth="1"/>
+    <col min="5" max="5" width="6.85156" style="26" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="26" customWidth="1"/>
+    <col min="7" max="7" width="11" style="26" customWidth="1"/>
+    <col min="8" max="256" width="11" style="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" t="s" s="26">
-        <v>85</v>
-      </c>
-      <c r="B1" t="s" s="26">
-        <v>86</v>
-      </c>
-      <c r="C1" t="s" s="26">
-        <v>87</v>
-      </c>
-      <c r="D1" t="s" s="26">
-        <v>88</v>
-      </c>
-      <c r="E1" t="s" s="26">
-        <v>89</v>
-      </c>
-      <c r="F1" t="s" s="26">
-        <v>90</v>
-      </c>
-      <c r="G1" s="27"/>
+      <c r="A1" t="s" s="13">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s" s="7">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s" s="7">
+        <v>72</v>
+      </c>
+      <c r="D1" t="s" s="7">
+        <v>73</v>
+      </c>
+      <c r="E1" t="s" s="7">
+        <v>74</v>
+      </c>
+      <c r="F1" t="s" s="13">
+        <v>75</v>
+      </c>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="42">
+      <c r="A2" s="27">
         <v>43874</v>
       </c>
-      <c r="B2" s="30">
+      <c r="B2" s="11">
         <v>36</v>
       </c>
-      <c r="C2" s="30">
+      <c r="C2" s="11">
         <v>4</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="11">
         <v>0</v>
       </c>
-      <c r="E2" s="30">
+      <c r="E2" s="11">
         <v>0</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="42">
+      <c r="A3" s="27">
         <v>43889</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="11">
         <v>31</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="11">
         <v>8</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="11">
         <v>172</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="11">
         <v>135</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="8"/>
     </row>
     <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="8"/>
     </row>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="8"/>
     </row>
     <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="8"/>
     </row>
     <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="8"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6304,468 +5964,460 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="7.67188" style="43" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="43" customWidth="1"/>
-    <col min="3" max="3" width="6.67188" style="43" customWidth="1"/>
-    <col min="4" max="4" width="11" style="43" customWidth="1"/>
-    <col min="5" max="5" width="11.3516" style="43" customWidth="1"/>
-    <col min="6" max="6" width="8.67188" style="43" customWidth="1"/>
-    <col min="7" max="7" width="9" style="43" customWidth="1"/>
-    <col min="8" max="8" width="7.67188" style="43" customWidth="1"/>
-    <col min="9" max="9" width="10.8516" style="43" customWidth="1"/>
-    <col min="10" max="256" width="11" style="43" customWidth="1"/>
+    <col min="1" max="1" width="7.67188" style="28" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="28" customWidth="1"/>
+    <col min="3" max="3" width="6.67188" style="28" customWidth="1"/>
+    <col min="4" max="4" width="11" style="28" customWidth="1"/>
+    <col min="5" max="5" width="11.3516" style="28" customWidth="1"/>
+    <col min="6" max="6" width="8.67188" style="28" customWidth="1"/>
+    <col min="7" max="7" width="9" style="28" customWidth="1"/>
+    <col min="8" max="8" width="7.67188" style="28" customWidth="1"/>
+    <col min="9" max="9" width="10.8516" style="28" customWidth="1"/>
+    <col min="10" max="256" width="11" style="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="28">
+      <c r="A1" t="s" s="9">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s" s="29">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s" s="9">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s" s="9">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s" s="30">
+        <v>83</v>
+      </c>
+      <c r="F1" t="s" s="30">
+        <v>84</v>
+      </c>
+      <c r="G1" t="s" s="30">
+        <v>85</v>
+      </c>
+      <c r="H1" t="s" s="30">
+        <v>86</v>
+      </c>
+      <c r="I1" t="s" s="31">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s" s="13">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E2" s="11">
+        <v>75</v>
+      </c>
+      <c r="F2" s="11">
+        <v>60</v>
+      </c>
+      <c r="G2" s="11">
         <v>48</v>
       </c>
-      <c r="B1" t="s" s="44">
-        <v>49</v>
-      </c>
-      <c r="C1" t="s" s="28">
+      <c r="H2" s="11">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s" s="13">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="s" s="7">
+        <v>89</v>
+      </c>
+      <c r="B3" t="s" s="32">
+        <v>90</v>
+      </c>
+      <c r="C3" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="14"/>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="s" s="7">
+        <v>89</v>
+      </c>
+      <c r="B4" t="s" s="32">
+        <v>91</v>
+      </c>
+      <c r="C4" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" s="8"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="14"/>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s" s="13">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s" s="7">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E6" s="11">
+        <v>60</v>
+      </c>
+      <c r="F6" s="11">
+        <v>60</v>
+      </c>
+      <c r="G6" s="11">
+        <v>60</v>
+      </c>
+      <c r="H6" s="11">
+        <v>55</v>
+      </c>
+      <c r="I6" t="s" s="13">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="s" s="7">
+        <v>92</v>
+      </c>
+      <c r="B7" t="s" s="32">
+        <v>90</v>
+      </c>
+      <c r="C7" t="s" s="7">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="27"/>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="s" s="7">
+        <v>92</v>
+      </c>
+      <c r="B8" t="s" s="32">
+        <v>93</v>
+      </c>
+      <c r="C8" t="s" s="7">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="27"/>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" s="8"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="27"/>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="s" s="7">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s" s="13">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s" s="7">
+        <v>15</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="11">
+        <v>60</v>
+      </c>
+      <c r="F10" s="11">
+        <v>60</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="14"/>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="s" s="7">
+        <v>94</v>
+      </c>
+      <c r="B11" t="s" s="32">
+        <v>95</v>
+      </c>
+      <c r="C11" t="s" s="7">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s" s="7">
+        <v>96</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="27"/>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="s" s="7">
+        <v>94</v>
+      </c>
+      <c r="B12" t="s" s="32">
+        <v>97</v>
+      </c>
+      <c r="C12" t="s" s="7">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s" s="7">
+        <v>98</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="27"/>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" s="8"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="27"/>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s" s="13">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E14" s="11">
+        <v>75</v>
+      </c>
+      <c r="F14" s="11">
+        <v>60</v>
+      </c>
+      <c r="G14" s="11">
+        <v>54</v>
+      </c>
+      <c r="H14" s="11">
         <v>50</v>
       </c>
-      <c r="D1" t="s" s="28">
-        <v>51</v>
-      </c>
-      <c r="E1" t="s" s="45">
-        <v>96</v>
-      </c>
-      <c r="F1" t="s" s="45">
-        <v>97</v>
-      </c>
-      <c r="G1" t="s" s="45">
-        <v>98</v>
-      </c>
-      <c r="H1" t="s" s="45">
+      <c r="I14" t="s" s="13">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="s" s="7">
         <v>99</v>
       </c>
-      <c r="I1" t="s" s="45">
+      <c r="B15" t="s" s="32">
         <v>100</v>
       </c>
-    </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="26">
-        <v>52</v>
-      </c>
-      <c r="B2" t="s" s="26">
-        <v>53</v>
-      </c>
-      <c r="C2" t="s" s="26">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s" s="26">
-        <v>54</v>
-      </c>
-      <c r="E2" s="30">
-        <v>75</v>
-      </c>
-      <c r="F2" s="30">
-        <v>60</v>
-      </c>
-      <c r="G2" s="30">
-        <v>48</v>
-      </c>
-      <c r="H2" s="30">
-        <v>30</v>
-      </c>
-      <c r="I2" t="s" s="26">
+      <c r="C15" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="27"/>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="s" s="7">
+        <v>99</v>
+      </c>
+      <c r="B16" t="s" s="32">
         <v>101</v>
       </c>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="26">
-        <v>102</v>
-      </c>
-      <c r="B3" t="s" s="46">
-        <v>103</v>
-      </c>
-      <c r="C3" t="s" s="26">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s" s="26">
-        <v>54</v>
-      </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="26">
-        <v>102</v>
-      </c>
-      <c r="B4" t="s" s="46">
-        <v>104</v>
-      </c>
-      <c r="C4" t="s" s="26">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s" s="26">
-        <v>54</v>
-      </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="27"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="s" s="26">
-        <v>55</v>
-      </c>
-      <c r="B6" t="s" s="26">
-        <v>56</v>
-      </c>
-      <c r="C6" t="s" s="26">
-        <v>57</v>
-      </c>
-      <c r="D6" t="s" s="26">
-        <v>54</v>
-      </c>
-      <c r="E6" s="30">
-        <v>60</v>
-      </c>
-      <c r="F6" s="30">
-        <v>60</v>
-      </c>
-      <c r="G6" s="30">
-        <v>60</v>
-      </c>
-      <c r="H6" s="30">
-        <v>55</v>
-      </c>
-      <c r="I6" t="s" s="26">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="s" s="26">
-        <v>105</v>
-      </c>
-      <c r="B7" t="s" s="46">
-        <v>103</v>
-      </c>
-      <c r="C7" t="s" s="26">
-        <v>57</v>
-      </c>
-      <c r="D7" t="s" s="26">
-        <v>54</v>
-      </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="42"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="s" s="26">
-        <v>105</v>
-      </c>
-      <c r="B8" t="s" s="46">
-        <v>106</v>
-      </c>
-      <c r="C8" t="s" s="26">
-        <v>57</v>
-      </c>
-      <c r="D8" t="s" s="26">
-        <v>54</v>
-      </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="42"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="27"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="42"/>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="s" s="26">
-        <v>58</v>
-      </c>
-      <c r="B10" t="s" s="26">
-        <v>59</v>
-      </c>
-      <c r="C10" t="s" s="26">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s" s="26">
-        <v>54</v>
-      </c>
-      <c r="E10" s="30">
-        <v>60</v>
-      </c>
-      <c r="F10" s="30">
-        <v>60</v>
-      </c>
-      <c r="G10" s="30">
-        <v>60</v>
-      </c>
-      <c r="H10" s="30">
-        <v>55</v>
-      </c>
-      <c r="I10" t="s" s="26">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="s" s="26">
-        <v>107</v>
-      </c>
-      <c r="B11" t="s" s="46">
-        <v>108</v>
-      </c>
-      <c r="C11" t="s" s="26">
-        <v>33</v>
-      </c>
-      <c r="D11" t="s" s="26">
-        <v>54</v>
-      </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="42"/>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="s" s="26">
-        <v>107</v>
-      </c>
-      <c r="B12" t="s" s="46">
-        <v>109</v>
-      </c>
-      <c r="C12" t="s" s="26">
-        <v>33</v>
-      </c>
-      <c r="D12" t="s" s="26">
-        <v>54</v>
-      </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="42"/>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="27"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="42"/>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="s" s="26">
-        <v>60</v>
-      </c>
-      <c r="B14" t="s" s="26">
-        <v>61</v>
-      </c>
-      <c r="C14" t="s" s="26">
-        <v>41</v>
-      </c>
-      <c r="D14" t="s" s="26">
-        <v>54</v>
-      </c>
-      <c r="E14" s="30">
-        <v>75</v>
-      </c>
-      <c r="F14" s="30">
-        <v>60</v>
-      </c>
-      <c r="G14" s="30">
-        <v>54</v>
-      </c>
-      <c r="H14" s="30">
-        <v>50</v>
-      </c>
-      <c r="I14" t="s" s="26">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="s" s="26">
-        <v>110</v>
-      </c>
-      <c r="B15" t="s" s="46">
-        <v>111</v>
-      </c>
-      <c r="C15" t="s" s="26">
-        <v>41</v>
-      </c>
-      <c r="D15" t="s" s="26">
-        <v>54</v>
-      </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="42"/>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="s" s="26">
-        <v>110</v>
-      </c>
-      <c r="B16" t="s" s="46">
-        <v>112</v>
-      </c>
-      <c r="C16" t="s" s="26">
-        <v>41</v>
-      </c>
-      <c r="D16" t="s" s="26">
-        <v>54</v>
-      </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="42"/>
+      <c r="C16" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="27"/>
     </row>
     <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="27"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="14"/>
     </row>
     <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="27"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="14"/>
     </row>
     <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="27"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="14"/>
     </row>
     <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="27"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="14"/>
     </row>
     <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="27"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="14"/>
     </row>
     <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="27"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="42"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="27"/>
     </row>
     <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="27"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="14"/>
     </row>
     <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="27"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="14"/>
     </row>
     <row r="25" ht="15" customHeight="1">
-      <c r="A25" s="27"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="14"/>
     </row>
     <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="27"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="14"/>
     </row>
     <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="27"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6784,247 +6436,235 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11" style="48" customWidth="1"/>
-    <col min="2" max="2" width="27.6719" style="48" customWidth="1"/>
-    <col min="3" max="9" width="11" style="48" customWidth="1"/>
-    <col min="10" max="256" width="11" style="48" customWidth="1"/>
+    <col min="1" max="1" width="11" style="34" customWidth="1"/>
+    <col min="2" max="2" width="27.6719" style="34" customWidth="1"/>
+    <col min="3" max="9" width="11" style="34" customWidth="1"/>
+    <col min="10" max="256" width="11" style="34" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="28">
+      <c r="A1" t="s" s="9">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s" s="29">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s" s="9">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s" s="9">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s" s="30">
+        <v>83</v>
+      </c>
+      <c r="F1" t="s" s="30">
+        <v>84</v>
+      </c>
+      <c r="G1" t="s" s="30">
+        <v>85</v>
+      </c>
+      <c r="H1" t="s" s="30">
+        <v>86</v>
+      </c>
+      <c r="I1" t="s" s="30">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s" s="7">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s" s="7">
+        <v>96</v>
+      </c>
+      <c r="E2" s="11">
+        <v>50</v>
+      </c>
+      <c r="F2" s="11">
+        <v>45</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="s" s="7">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s" s="7">
         <v>48</v>
       </c>
-      <c r="B1" t="s" s="44">
+      <c r="C3" t="s" s="7">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="7">
+        <v>96</v>
+      </c>
+      <c r="E3" s="11">
+        <v>50</v>
+      </c>
+      <c r="F3" s="11">
+        <v>45</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="s" s="7">
         <v>49</v>
       </c>
-      <c r="C1" t="s" s="28">
+      <c r="B4" t="s" s="7">
         <v>50</v>
       </c>
-      <c r="D1" t="s" s="28">
+      <c r="C4" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s" s="7">
+        <v>96</v>
+      </c>
+      <c r="E4" s="11">
+        <v>60</v>
+      </c>
+      <c r="F4" s="11">
+        <v>50</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="s" s="7">
         <v>51</v>
       </c>
-      <c r="E1" t="s" s="45">
+      <c r="B5" t="s" s="7">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s" s="7">
         <v>96</v>
       </c>
-      <c r="F1" t="s" s="45">
-        <v>97</v>
-      </c>
-      <c r="G1" t="s" s="45">
-        <v>98</v>
-      </c>
-      <c r="H1" t="s" s="45">
-        <v>99</v>
-      </c>
-      <c r="I1" t="s" s="45">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="26">
+      <c r="E5" s="11">
+        <v>50</v>
+      </c>
+      <c r="F5" s="11">
+        <v>40</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="s" s="7">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s" s="7">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s" s="7">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s" s="7">
+        <v>96</v>
+      </c>
+      <c r="E6" s="11">
+        <v>30</v>
+      </c>
+      <c r="F6" s="11">
+        <v>20</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="s" s="7">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s" s="7">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s" s="7">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s" s="7">
+        <v>96</v>
+      </c>
+      <c r="E7" s="11">
+        <v>75</v>
+      </c>
+      <c r="F7" s="11">
+        <v>75</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s" s="7">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s" s="7">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s" s="7">
+        <v>96</v>
+      </c>
+      <c r="E8" s="11">
+        <v>50</v>
+      </c>
+      <c r="F8" s="11">
+        <v>45</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="s" s="7">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s" s="7">
         <v>62</v>
       </c>
-      <c r="B2" t="s" s="26">
-        <v>63</v>
-      </c>
-      <c r="C2" t="s" s="26">
-        <v>57</v>
-      </c>
-      <c r="D2" t="s" s="26">
-        <v>113</v>
-      </c>
-      <c r="E2" s="30">
-        <v>50</v>
-      </c>
-      <c r="F2" s="30">
-        <v>45</v>
-      </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="26">
-        <v>64</v>
-      </c>
-      <c r="B3" t="s" s="26">
-        <v>65</v>
-      </c>
-      <c r="C3" t="s" s="26">
-        <v>57</v>
-      </c>
-      <c r="D3" t="s" s="26">
-        <v>113</v>
-      </c>
-      <c r="E3" s="30">
-        <v>50</v>
-      </c>
-      <c r="F3" s="30">
-        <v>45</v>
-      </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="26">
-        <v>66</v>
-      </c>
-      <c r="B4" t="s" s="26">
-        <v>67</v>
-      </c>
-      <c r="C4" t="s" s="26">
-        <v>41</v>
-      </c>
-      <c r="D4" t="s" s="26">
-        <v>113</v>
-      </c>
-      <c r="E4" s="30">
-        <v>60</v>
-      </c>
-      <c r="F4" s="30">
-        <v>50</v>
-      </c>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="26">
-        <v>68</v>
-      </c>
-      <c r="B5" t="s" s="26">
-        <v>69</v>
-      </c>
-      <c r="C5" t="s" s="26">
-        <v>41</v>
-      </c>
-      <c r="D5" t="s" s="26">
-        <v>113</v>
-      </c>
-      <c r="E5" s="30">
-        <v>50</v>
-      </c>
-      <c r="F5" s="30">
-        <v>40</v>
-      </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="s" s="26">
-        <v>70</v>
-      </c>
-      <c r="B6" t="s" s="26">
-        <v>71</v>
-      </c>
-      <c r="C6" t="s" s="26">
-        <v>72</v>
-      </c>
-      <c r="D6" t="s" s="26">
-        <v>113</v>
-      </c>
-      <c r="E6" s="30">
+      <c r="C9" t="s" s="7">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s" s="7">
+        <v>96</v>
+      </c>
+      <c r="E9" s="11">
         <v>30</v>
       </c>
-      <c r="F6" s="30">
-        <v>20</v>
-      </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="s" s="26">
-        <v>73</v>
-      </c>
-      <c r="B7" t="s" s="26">
-        <v>74</v>
-      </c>
-      <c r="C7" t="s" s="26">
-        <v>72</v>
-      </c>
-      <c r="D7" t="s" s="26">
-        <v>113</v>
-      </c>
-      <c r="E7" s="30">
-        <v>75</v>
-      </c>
-      <c r="F7" s="30">
-        <v>75</v>
-      </c>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="s" s="26">
-        <v>75</v>
-      </c>
-      <c r="B8" t="s" s="26">
-        <v>76</v>
-      </c>
-      <c r="C8" t="s" s="26">
-        <v>33</v>
-      </c>
-      <c r="D8" t="s" s="26">
-        <v>54</v>
-      </c>
-      <c r="E8" s="30">
-        <v>50</v>
-      </c>
-      <c r="F8" s="30">
-        <v>45</v>
-      </c>
-      <c r="G8" s="30">
-        <v>50</v>
-      </c>
-      <c r="H8" s="30">
-        <v>45</v>
-      </c>
-      <c r="I8" t="s" s="26">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="s" s="26">
-        <v>77</v>
-      </c>
-      <c r="B9" t="s" s="26">
-        <v>78</v>
-      </c>
-      <c r="C9" t="s" s="26">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s" s="26">
-        <v>54</v>
-      </c>
-      <c r="E9" s="30">
+      <c r="F9" s="11">
         <v>30</v>
       </c>
-      <c r="F9" s="30">
-        <v>30</v>
-      </c>
-      <c r="G9" s="30">
-        <v>30</v>
-      </c>
-      <c r="H9" s="30">
-        <v>28</v>
-      </c>
-      <c r="I9" t="s" s="26">
-        <v>101</v>
-      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7043,203 +6683,203 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11" style="49" customWidth="1"/>
-    <col min="2" max="2" width="23.6719" style="49" customWidth="1"/>
-    <col min="3" max="9" width="11" style="49" customWidth="1"/>
-    <col min="10" max="256" width="11" style="49" customWidth="1"/>
+    <col min="1" max="1" width="11" style="35" customWidth="1"/>
+    <col min="2" max="2" width="23.6719" style="35" customWidth="1"/>
+    <col min="3" max="9" width="11" style="35" customWidth="1"/>
+    <col min="10" max="256" width="11" style="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.5" customHeight="1">
-      <c r="A1" t="s" s="28">
-        <v>48</v>
-      </c>
-      <c r="B1" t="s" s="44">
-        <v>49</v>
-      </c>
-      <c r="C1" t="s" s="28">
-        <v>50</v>
-      </c>
-      <c r="D1" t="s" s="28">
-        <v>51</v>
-      </c>
-      <c r="E1" t="s" s="45">
-        <v>96</v>
-      </c>
-      <c r="F1" t="s" s="45">
-        <v>97</v>
-      </c>
-      <c r="G1" t="s" s="45">
-        <v>98</v>
-      </c>
-      <c r="H1" t="s" s="45">
-        <v>99</v>
-      </c>
-      <c r="I1" t="s" s="45">
-        <v>100</v>
+      <c r="A1" t="s" s="9">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s" s="29">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s" s="9">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s" s="9">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s" s="30">
+        <v>83</v>
+      </c>
+      <c r="F1" t="s" s="30">
+        <v>84</v>
+      </c>
+      <c r="G1" t="s" s="30">
+        <v>85</v>
+      </c>
+      <c r="H1" t="s" s="30">
+        <v>86</v>
+      </c>
+      <c r="I1" t="s" s="30">
+        <v>87</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="26">
+      <c r="A2" t="s" s="7">
+        <v>104</v>
+      </c>
+      <c r="B2" t="s" s="7">
+        <v>105</v>
+      </c>
+      <c r="C2" t="s" s="7">
+        <v>106</v>
+      </c>
+      <c r="D2" t="s" s="7">
+        <v>107</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="s" s="7">
+        <v>108</v>
+      </c>
+      <c r="B3" t="s" s="7">
+        <v>109</v>
+      </c>
+      <c r="C3" t="s" s="7">
+        <v>106</v>
+      </c>
+      <c r="D3" t="s" s="7">
+        <v>107</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="s" s="7">
+        <v>110</v>
+      </c>
+      <c r="B4" t="s" s="7">
+        <v>111</v>
+      </c>
+      <c r="C4" t="s" s="7">
+        <v>112</v>
+      </c>
+      <c r="D4" t="s" s="7">
+        <v>107</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="s" s="7">
+        <v>113</v>
+      </c>
+      <c r="B5" t="s" s="7">
         <v>114</v>
       </c>
-      <c r="B2" t="s" s="26">
+      <c r="C5" t="s" s="7">
+        <v>112</v>
+      </c>
+      <c r="D5" t="s" s="7">
+        <v>107</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="s" s="7">
         <v>115</v>
       </c>
-      <c r="C2" t="s" s="26">
+      <c r="B6" t="s" s="7">
         <v>116</v>
       </c>
-      <c r="D2" t="s" s="26">
+      <c r="C6" t="s" s="7">
         <v>117</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="26">
+      <c r="D6" t="s" s="7">
+        <v>107</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="s" s="7">
         <v>118</v>
       </c>
-      <c r="B3" t="s" s="26">
+      <c r="B7" t="s" s="7">
         <v>119</v>
       </c>
-      <c r="C3" t="s" s="26">
-        <v>116</v>
-      </c>
-      <c r="D3" t="s" s="26">
+      <c r="C7" t="s" s="7">
         <v>117</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="26">
+      <c r="D7" t="s" s="7">
+        <v>107</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="s" s="7">
         <v>120</v>
       </c>
-      <c r="B4" t="s" s="26">
+      <c r="B8" t="s" s="7">
         <v>121</v>
       </c>
-      <c r="C4" t="s" s="26">
+      <c r="C8" t="s" s="7">
         <v>122</v>
       </c>
-      <c r="D4" t="s" s="26">
-        <v>54</v>
-      </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="26">
+      <c r="D8" t="s" s="7">
+        <v>107</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="s" s="7">
         <v>123</v>
       </c>
-      <c r="B5" t="s" s="26">
+      <c r="B9" t="s" s="7">
         <v>124</v>
       </c>
-      <c r="C5" t="s" s="26">
+      <c r="C9" t="s" s="7">
         <v>122</v>
       </c>
-      <c r="D5" t="s" s="26">
-        <v>54</v>
-      </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="s" s="26">
-        <v>125</v>
-      </c>
-      <c r="B6" t="s" s="26">
-        <v>126</v>
-      </c>
-      <c r="C6" t="s" s="26">
-        <v>127</v>
-      </c>
-      <c r="D6" t="s" s="26">
-        <v>117</v>
-      </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="s" s="26">
-        <v>128</v>
-      </c>
-      <c r="B7" t="s" s="26">
-        <v>129</v>
-      </c>
-      <c r="C7" t="s" s="26">
-        <v>127</v>
-      </c>
-      <c r="D7" t="s" s="26">
-        <v>117</v>
-      </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="s" s="26">
-        <v>130</v>
-      </c>
-      <c r="B8" t="s" s="26">
-        <v>131</v>
-      </c>
-      <c r="C8" t="s" s="26">
-        <v>132</v>
-      </c>
-      <c r="D8" t="s" s="26">
-        <v>117</v>
-      </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="s" s="26">
-        <v>133</v>
-      </c>
-      <c r="B9" t="s" s="26">
-        <v>134</v>
-      </c>
-      <c r="C9" t="s" s="26">
-        <v>132</v>
-      </c>
-      <c r="D9" t="s" s="26">
-        <v>117</v>
-      </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
+      <c r="D9" t="s" s="7">
+        <v>107</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7258,137 +6898,137 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="9" width="11" style="50" customWidth="1"/>
-    <col min="10" max="256" width="11" style="50" customWidth="1"/>
+    <col min="1" max="9" width="11" style="36" customWidth="1"/>
+    <col min="10" max="256" width="11" style="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.5" customHeight="1">
-      <c r="A1" t="s" s="28">
-        <v>48</v>
-      </c>
-      <c r="B1" t="s" s="44">
-        <v>49</v>
-      </c>
-      <c r="C1" t="s" s="28">
-        <v>50</v>
-      </c>
-      <c r="D1" t="s" s="28">
-        <v>51</v>
-      </c>
-      <c r="E1" t="s" s="45">
-        <v>96</v>
-      </c>
-      <c r="F1" t="s" s="45">
-        <v>97</v>
-      </c>
-      <c r="G1" t="s" s="45">
-        <v>98</v>
-      </c>
-      <c r="H1" t="s" s="45">
-        <v>99</v>
-      </c>
-      <c r="I1" t="s" s="45">
-        <v>100</v>
+      <c r="A1" t="s" s="9">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s" s="29">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s" s="9">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s" s="9">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s" s="30">
+        <v>83</v>
+      </c>
+      <c r="F1" t="s" s="30">
+        <v>84</v>
+      </c>
+      <c r="G1" t="s" s="30">
+        <v>85</v>
+      </c>
+      <c r="H1" t="s" s="30">
+        <v>86</v>
+      </c>
+      <c r="I1" t="s" s="30">
+        <v>87</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
     </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/docs/Team01Report-Sprint2.xlsx
+++ b/docs/Team01Report-Sprint2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" tabRatio="688" activeTab="6"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" tabRatio="688"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="211">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -698,6 +698,9 @@
   </si>
   <si>
     <t>https://github.com/sabk18/CS_555_GEDCOM</t>
+  </si>
+  <si>
+    <t>Staneja14</t>
   </si>
 </sst>
 </file>
@@ -1028,11 +1031,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="364358120"/>
-        <c:axId val="364358512"/>
+        <c:axId val="476275400"/>
+        <c:axId val="476272264"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="364358120"/>
+        <c:axId val="476275400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1042,14 +1045,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="364358512"/>
+        <c:crossAx val="476272264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="364358512"/>
+        <c:axId val="476272264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1060,7 +1063,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="364358120"/>
+        <c:crossAx val="476275400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1147,11 +1150,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="364358904"/>
-        <c:axId val="364354200"/>
+        <c:axId val="476271480"/>
+        <c:axId val="476272656"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="364358904"/>
+        <c:axId val="476271480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1161,14 +1164,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="364354200"/>
+        <c:crossAx val="476272656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="364354200"/>
+        <c:axId val="476272656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1179,7 +1182,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="364358904"/>
+        <c:crossAx val="476271480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1216,7 +1219,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1254,7 +1257,7 @@
         <xdr:cNvPr id="3" name="Rectangular Callout 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1329,7 +1332,7 @@
         <xdr:cNvPr id="4" name="Rectangular Callout 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1394,7 +1397,7 @@
         <xdr:cNvPr id="5" name="Rectangular Callout 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1463,7 +1466,7 @@
         <xdr:cNvPr id="6" name="Rectangular Callout 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1533,7 +1536,7 @@
         <xdr:cNvPr id="7" name="Rectangular Callout 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1602,7 +1605,7 @@
         <xdr:cNvPr id="8" name="Rectangular Callout 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1672,7 +1675,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2015,8 +2018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2068,6 +2071,9 @@
       </c>
       <c r="C4" t="s">
         <v>184</v>
+      </c>
+      <c r="E4" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -3148,7 +3154,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection sqref="A1:I9"/>
     </sheetView>
   </sheetViews>
